--- a/src/main/java/dataRepository/logindata.xlsx
+++ b/src/main/java/dataRepository/logindata.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t xml:space="preserve">UserName</t>
   </si>
@@ -28,13 +28,10 @@
     <t xml:space="preserve">Password</t>
   </si>
   <si>
-    <t xml:space="preserve">exu4@mailinator.com</t>
+    <t xml:space="preserve">exu6@mailinator.com</t>
   </si>
   <si>
     <t xml:space="preserve">password</t>
-  </si>
-  <si>
-    <t xml:space="preserve">exu5@mailinator.com</t>
   </si>
 </sst>
 </file>
@@ -142,17 +139,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col min="1" max="1" hidden="false" style="0" width="18.0867346938776" collapsed="true"/>
-    <col min="2" max="2" hidden="false" style="0" width="9.58673469387755" collapsed="true"/>
-    <col min="3" max="1025" hidden="false" style="0" width="8.50510204081633" collapsed="true"/>
+    <col min="1" max="1" hidden="false" style="0" width="17.8214285714286" collapsed="true"/>
+    <col min="2" max="2" hidden="false" style="0" width="9.44897959183673" collapsed="true"/>
+    <col min="3" max="1025" hidden="false" style="0" width="8.36734693877551" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -165,8 +162,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="exu4@mailinator.com"/>
-    <hyperlink ref="A3" r:id="rId2" display="exu5@mailinator.com"/>
+    <hyperlink ref="A2" r:id="rId1" display="exu6@mailinator.com"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/src/main/java/dataRepository/logindata.xlsx
+++ b/src/main/java/dataRepository/logindata.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
   <si>
     <t xml:space="preserve">UserName</t>
   </si>
@@ -28,10 +28,22 @@
     <t xml:space="preserve">Password</t>
   </si>
   <si>
-    <t xml:space="preserve">exu6@mailinator.com</t>
+    <t xml:space="preserve">exu93@gmail.com</t>
   </si>
   <si>
     <t xml:space="preserve">password</t>
+  </si>
+  <si>
+    <t xml:space="preserve">exu92@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">exu91@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">exu90@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">exu89@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -139,7 +151,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
@@ -147,9 +159,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col min="1" max="1" hidden="false" style="0" width="17.8214285714286" collapsed="true"/>
-    <col min="2" max="2" hidden="false" style="0" width="9.44897959183673" collapsed="true"/>
-    <col min="3" max="1025" hidden="false" style="0" width="8.36734693877551" collapsed="true"/>
+    <col min="1" max="1" hidden="false" style="0" width="15.5255102040816" collapsed="true"/>
+    <col min="2" max="2" hidden="false" style="0" width="8.50510204081633" collapsed="true"/>
+    <col min="3" max="1025" hidden="false" style="0" width="8.23469387755102" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -160,10 +172,39 @@
         <v>1</v>
       </c>
     </row>
+    <row r="2" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="exu6@mailinator.com"/>
-  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/src/main/java/dataRepository/logindata.xlsx
+++ b/src/main/java/dataRepository/logindata.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="7">
   <si>
     <t xml:space="preserve">UserName</t>
   </si>
@@ -28,13 +28,19 @@
     <t xml:space="preserve">Password</t>
   </si>
   <si>
-    <t xml:space="preserve">exu4@mailinator.com</t>
+    <t xml:space="preserve">exu27@mailinator.com</t>
   </si>
   <si>
     <t xml:space="preserve">password</t>
   </si>
   <si>
-    <t xml:space="preserve">exu5@mailinator.com</t>
+    <t xml:space="preserve">exu28@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">exu29@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">exu30@mailinator.com</t>
   </si>
 </sst>
 </file>
@@ -142,17 +148,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col min="1" max="1" hidden="false" style="0" width="18.0867346938776" collapsed="true"/>
-    <col min="2" max="2" hidden="false" style="0" width="9.58673469387755" collapsed="true"/>
-    <col min="3" max="1025" hidden="false" style="0" width="8.50510204081633" collapsed="true"/>
+    <col min="1" max="1" hidden="false" style="0" width="21.0612244897959" collapsed="true"/>
+    <col min="2" max="2" hidden="false" style="0" width="8.36734693877551" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -163,10 +168,20 @@
         <v>1</v>
       </c>
     </row>
+    <row r="2" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="exu4@mailinator.com"/>
-    <hyperlink ref="A3" r:id="rId2" display="exu5@mailinator.com"/>
+    <hyperlink ref="A2" r:id="rId1" display="exu27@mailinator.com"/>
+    <hyperlink ref="A3" r:id="rId2" display="exu28@mailinator.com"/>
+    <hyperlink ref="A4" r:id="rId3" display="exu29@mailinator.com"/>
+    <hyperlink ref="A5" r:id="rId4" display="exu30@mailinator.com"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/src/main/java/dataRepository/logindata.xlsx
+++ b/src/main/java/dataRepository/logindata.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t xml:space="preserve">UserName</t>
   </si>
@@ -28,19 +28,10 @@
     <t xml:space="preserve">Password</t>
   </si>
   <si>
-    <t xml:space="preserve">exu27@mailinator.com</t>
+    <t xml:space="preserve">exu91@gmail.com</t>
   </si>
   <si>
     <t xml:space="preserve">password</t>
-  </si>
-  <si>
-    <t xml:space="preserve">exu28@mailinator.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">exu29@mailinator.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">exu30@mailinator.com</t>
   </si>
 </sst>
 </file>
@@ -148,16 +139,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col min="1" max="1" hidden="false" style="0" width="21.0612244897959" collapsed="true"/>
-    <col min="2" max="2" hidden="false" style="0" width="8.36734693877551" collapsed="true"/>
+    <col min="1" max="1" hidden="false" style="0" width="20.3826530612245" collapsed="true"/>
+    <col min="3" max="1025" hidden="false" style="0" width="8.36734693877551" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -168,20 +159,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="exu27@mailinator.com"/>
-    <hyperlink ref="A3" r:id="rId2" display="exu28@mailinator.com"/>
-    <hyperlink ref="A4" r:id="rId3" display="exu29@mailinator.com"/>
-    <hyperlink ref="A5" r:id="rId4" display="exu30@mailinator.com"/>
+    <hyperlink ref="A2" r:id="rId1" display="exu91@gmail.com"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/src/main/java/dataRepository/logindata.xlsx
+++ b/src/main/java/dataRepository/logindata.xlsx
@@ -28,22 +28,22 @@
     <t xml:space="preserve">Password</t>
   </si>
   <si>
-    <t xml:space="preserve">exu93@gmail.com</t>
+    <t xml:space="preserve">exu84@gmail.com</t>
   </si>
   <si>
     <t xml:space="preserve">password</t>
   </si>
   <si>
-    <t xml:space="preserve">exu92@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">exu91@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">exu90@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">exu89@gmail.com</t>
+    <t xml:space="preserve">exu85@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">exu86@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">exu87@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">exu88@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -154,14 +154,13 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col min="1" max="1" hidden="false" style="0" width="15.5255102040816" collapsed="true"/>
-    <col min="2" max="2" hidden="false" style="0" width="8.50510204081633" collapsed="true"/>
-    <col min="3" max="1025" hidden="false" style="0" width="8.23469387755102" collapsed="true"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.3877551020408"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -172,35 +171,43 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="B3" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="B4" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="B5" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B6" s="0" t="s">
         <v>3</v>
       </c>
     </row>

--- a/src/main/java/dataRepository/logindata.xlsx
+++ b/src/main/java/dataRepository/logindata.xlsx
@@ -159,9 +159,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.2551020408163"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.50510204081633"/>
+    <col min="1" max="1" hidden="false" style="0" width="15.2551020408163" collapsed="true"/>
+    <col min="2" max="2" hidden="false" style="0" width="8.23469387755102" collapsed="true"/>
+    <col min="3" max="1025" hidden="false" style="0" width="8.50510204081633" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -172,43 +172,35 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="0" t="s">
         <v>3</v>
       </c>
     </row>

--- a/src/main/java/dataRepository/logindata.xlsx
+++ b/src/main/java/dataRepository/logindata.xlsx
@@ -174,7 +174,7 @@
     </row>
     <row r="2" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>3</v>
@@ -182,7 +182,7 @@
     </row>
     <row r="3" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>3</v>
@@ -190,17 +190,9 @@
     </row>
     <row r="4" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="0" t="s">
         <v>3</v>
       </c>
     </row>

--- a/src/main/java/dataRepository/logindata.xlsx
+++ b/src/main/java/dataRepository/logindata.xlsx
@@ -153,9 +153,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.5510204081633"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="9.31632653061224"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.23469387755102"/>
+    <col min="1" max="1" hidden="false" style="0" width="17.5510204081633" collapsed="true"/>
+    <col min="2" max="2" hidden="false" style="0" width="9.31632653061224" collapsed="true"/>
+    <col min="3" max="1025" hidden="false" style="0" width="8.23469387755102" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -166,27 +166,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="0" t="s">
         <v>3</v>
       </c>
     </row>

--- a/src/main/java/dataRepository/logindata.xlsx
+++ b/src/main/java/dataRepository/logindata.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t xml:space="preserve">UserName</t>
   </si>
@@ -28,19 +28,16 @@
     <t xml:space="preserve">Password</t>
   </si>
   <si>
-    <t xml:space="preserve">exu27@mailinator.com</t>
+    <t xml:space="preserve">exu30@mailinator.com</t>
   </si>
   <si>
     <t xml:space="preserve">password</t>
   </si>
   <si>
-    <t xml:space="preserve">exu28@mailinator.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">exu29@mailinator.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">exu30@mailinator.com</t>
+    <t xml:space="preserve">Sanityuser_138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@mailinator.com</t>
   </si>
 </sst>
 </file>
@@ -50,7 +47,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -78,6 +75,11 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -122,12 +124,20 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -148,16 +158,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
+      <selection pane="topLeft" activeCell="H12" activeCellId="0" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col min="1" max="1" hidden="false" style="0" width="21.0612244897959" collapsed="true"/>
-    <col min="2" max="2" hidden="false" style="0" width="8.36734693877551" collapsed="true"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.6530612244898"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="7" min="3" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="34.3520408163265"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="25.515306122449"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -168,20 +182,25 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="exu27@mailinator.com"/>
-    <hyperlink ref="A3" r:id="rId2" display="exu28@mailinator.com"/>
-    <hyperlink ref="A4" r:id="rId3" display="exu29@mailinator.com"/>
-    <hyperlink ref="A5" r:id="rId4" display="exu30@mailinator.com"/>
+    <hyperlink ref="A2" r:id="rId1" display="exu30@mailinator.com"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/src/main/java/dataRepository/logindata.xlsx
+++ b/src/main/java/dataRepository/logindata.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
   <si>
     <t xml:space="preserve">UserName</t>
   </si>
@@ -28,10 +28,28 @@
     <t xml:space="preserve">Password</t>
   </si>
   <si>
-    <t xml:space="preserve">exu30@mailinator.com</t>
+    <t xml:space="preserve">exu34@mailinator.com</t>
   </si>
   <si>
     <t xml:space="preserve">password</t>
+  </si>
+  <si>
+    <t xml:space="preserve">exu35@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">exu36@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">exu37@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">exu38@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">exu39@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">exu40@mailinator.com</t>
   </si>
 </sst>
 </file>
@@ -139,19 +157,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G24" activeCellId="0" sqref="G24"/>
+      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.3826530612245"/>
-    <col collapsed="false" hidden="false" max="7" min="3" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="33.8826530612245"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="25.2448979591837"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.36734693877551"/>
+    <col min="1" max="1" hidden="false" style="0" width="25.1071428571429" collapsed="true"/>
+    <col min="2" max="2" hidden="false" style="0" width="11.7448979591837" collapsed="true"/>
+    <col min="3" max="7" hidden="false" style="0" width="8.23469387755102" collapsed="true"/>
+    <col min="8" max="8" hidden="false" style="0" width="31.7244897959184" collapsed="true"/>
+    <col min="9" max="9" hidden="false" style="0" width="23.7602040816327" collapsed="true"/>
+    <col min="10" max="1025" hidden="false" style="0" width="8.23469387755102" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -162,17 +181,63 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B2" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="0" t="s">
         <v>3</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="exu30@mailinator.com"/>
+    <hyperlink ref="A2" r:id="rId1" display="exu34@mailinator.com"/>
+    <hyperlink ref="A3" r:id="rId2" display="exu35@mailinator.com"/>
+    <hyperlink ref="A4" r:id="rId3" display="exu36@mailinator.com"/>
+    <hyperlink ref="A5" r:id="rId4" display="exu37@mailinator.com"/>
+    <hyperlink ref="A6" r:id="rId5" display="exu38@mailinator.com"/>
+    <hyperlink ref="A7" r:id="rId6" display="exu39@mailinator.com"/>
+    <hyperlink ref="A8" r:id="rId7" display="exu40@mailinator.com"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/src/main/java/dataRepository/logindata.xlsx
+++ b/src/main/java/dataRepository/logindata.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
   <si>
     <t xml:space="preserve">UserName</t>
   </si>
@@ -28,16 +28,22 @@
     <t xml:space="preserve">Password</t>
   </si>
   <si>
-    <t xml:space="preserve">exu86@gmail.com</t>
+    <t xml:space="preserve">newuser1@mailinator.com</t>
   </si>
   <si>
     <t xml:space="preserve">password</t>
   </si>
   <si>
-    <t xml:space="preserve">exu87@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">exu88@gmail.com</t>
+    <t xml:space="preserve">newuser2@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">newuser3@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">newuser4@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">newuser5@mailinator.com</t>
   </si>
 </sst>
 </file>
@@ -145,17 +151,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:B4"/>
+      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col min="1" max="1" hidden="false" style="0" width="17.5510204081633" collapsed="true"/>
-    <col min="2" max="2" hidden="false" style="0" width="9.31632653061224" collapsed="true"/>
-    <col min="3" max="1025" hidden="false" style="0" width="8.23469387755102" collapsed="true"/>
+    <col min="1" max="1" hidden="false" style="0" width="24.5663265306122" collapsed="true"/>
+    <col min="2" max="2" hidden="false" style="0" width="11.2040816326531" collapsed="true"/>
+    <col min="3" max="7" hidden="false" style="0" width="8.50510204081633" collapsed="true"/>
+    <col min="8" max="8" hidden="false" style="0" width="30.9132653061224" collapsed="true"/>
+    <col min="9" max="9" hidden="false" style="0" width="22.9489795918367" collapsed="true"/>
+    <col min="10" max="1025" hidden="false" style="0" width="8.50510204081633" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -167,22 +176,33 @@
       </c>
     </row>
     <row r="2" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>4</v>
+      <c r="A2" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>5</v>
+      <c r="A3" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>3</v>
       </c>
     </row>
+    <row r="4" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" display="newuser1@mailinator.com"/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/src/main/java/dataRepository/logindata.xlsx
+++ b/src/main/java/dataRepository/logindata.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
   <si>
     <t xml:space="preserve">UserName</t>
   </si>
@@ -28,28 +28,16 @@
     <t xml:space="preserve">Password</t>
   </si>
   <si>
-    <t xml:space="preserve">exu34@mailinator.com</t>
+    <t xml:space="preserve">newuser3@mailinator.com</t>
   </si>
   <si>
     <t xml:space="preserve">password</t>
   </si>
   <si>
-    <t xml:space="preserve">exu35@mailinator.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">exu36@mailinator.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">exu37@mailinator.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">exu38@mailinator.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">exu39@mailinator.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">exu40@mailinator.com</t>
+    <t xml:space="preserve">newuser4@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">newuser5@mailinator.com</t>
   </si>
 </sst>
 </file>
@@ -157,20 +145,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
+      <selection pane="topLeft" activeCell="F20" activeCellId="0" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col min="1" max="1" hidden="false" style="0" width="25.1071428571429" collapsed="true"/>
-    <col min="2" max="2" hidden="false" style="0" width="11.7448979591837" collapsed="true"/>
-    <col min="3" max="7" hidden="false" style="0" width="8.23469387755102" collapsed="true"/>
-    <col min="8" max="8" hidden="false" style="0" width="31.7244897959184" collapsed="true"/>
-    <col min="9" max="9" hidden="false" style="0" width="23.7602040816327" collapsed="true"/>
-    <col min="10" max="1025" hidden="false" style="0" width="8.23469387755102" collapsed="true"/>
+    <col min="1" max="1" hidden="false" style="0" width="24.8367346938776" collapsed="true"/>
+    <col min="2" max="2" hidden="false" style="0" width="11.4744897959184" collapsed="true"/>
+    <col min="8" max="8" hidden="false" style="0" width="31.3163265306122" collapsed="true"/>
+    <col min="9" max="9" hidden="false" style="0" width="23.3520408163265" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -197,47 +183,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="exu34@mailinator.com"/>
-    <hyperlink ref="A3" r:id="rId2" display="exu35@mailinator.com"/>
-    <hyperlink ref="A4" r:id="rId3" display="exu36@mailinator.com"/>
-    <hyperlink ref="A5" r:id="rId4" display="exu37@mailinator.com"/>
-    <hyperlink ref="A6" r:id="rId5" display="exu38@mailinator.com"/>
-    <hyperlink ref="A7" r:id="rId6" display="exu39@mailinator.com"/>
-    <hyperlink ref="A8" r:id="rId7" display="exu40@mailinator.com"/>
+    <hyperlink ref="A2" r:id="rId1" display="newuser3@mailinator.com"/>
+    <hyperlink ref="A3" r:id="rId2" display="newuser4@mailinator.com"/>
+    <hyperlink ref="A4" r:id="rId3" display="newuser5@mailinator.com"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/src/main/java/dataRepository/logindata.xlsx
+++ b/src/main/java/dataRepository/logindata.xlsx
@@ -169,17 +169,9 @@
     </row>
     <row r="2" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="0" t="s">
         <v>3</v>
       </c>
     </row>

--- a/src/main/java/dataRepository/logindata.xlsx
+++ b/src/main/java/dataRepository/logindata.xlsx
@@ -28,16 +28,16 @@
     <t xml:space="preserve">Password</t>
   </si>
   <si>
-    <t xml:space="preserve">exu86@gmail.com</t>
+    <t xml:space="preserve">Sanityuserjenkins_001@mailinator.com</t>
   </si>
   <si>
     <t xml:space="preserve">password</t>
   </si>
   <si>
-    <t xml:space="preserve">exu87@gmail.com</t>
+    <t xml:space="preserve">Sanityuserjenkins_002@mailinator.com</t>
   </si>
   <si>
-    <t xml:space="preserve">exu88@gmail.com</t>
+    <t xml:space="preserve">Sanityuserjenkins_003@mailinator.com</t>
   </si>
 </sst>
 </file>
@@ -148,14 +148,14 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:B4"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col min="1" max="1" hidden="false" style="0" width="17.5510204081633" collapsed="true"/>
-    <col min="2" max="2" hidden="false" style="0" width="9.31632653061224" collapsed="true"/>
-    <col min="3" max="1025" hidden="false" style="0" width="8.23469387755102" collapsed="true"/>
+    <col min="1" max="1" hidden="false" style="0" width="29.5612244897959" collapsed="true"/>
+    <col min="2" max="2" hidden="false" style="0" width="22.6785714285714" collapsed="true"/>
+    <col min="3" max="1025" hidden="false" style="0" width="8.50510204081633" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -164,22 +164,6 @@
       </c>
       <c r="B1" s="0" t="s">
         <v>1</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/java/dataRepository/logindata.xlsx
+++ b/src/main/java/dataRepository/logindata.xlsx
@@ -156,9 +156,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="29.1581632653061"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.4081632653061"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.36734693877551"/>
+    <col min="1" max="1" hidden="false" style="0" width="29.1581632653061" collapsed="true"/>
+    <col min="2" max="2" hidden="false" style="0" width="22.4081632653061" collapsed="true"/>
+    <col min="3" max="1025" hidden="false" style="0" width="8.36734693877551" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -169,35 +169,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="0" t="s">
         <v>3</v>
       </c>
     </row>

--- a/src/main/java/dataRepository/logindata.xlsx
+++ b/src/main/java/dataRepository/logindata.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="199">
   <si>
     <t xml:space="preserve">UserName</t>
   </si>
@@ -28,16 +28,595 @@
     <t xml:space="preserve">Password</t>
   </si>
   <si>
-    <t xml:space="preserve">newuser3@mailinator.com</t>
+    <t xml:space="preserve">adnewuser_5@mailinator.com</t>
   </si>
   <si>
     <t xml:space="preserve">password</t>
   </si>
   <si>
-    <t xml:space="preserve">newuser4@mailinator.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">newuser5@mailinator.com</t>
+    <t xml:space="preserve">adnewuser_6@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adnewuser_7@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adnewuser_8@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adnewuser_9@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adnewuser_10@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adnewuser_11@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adnewuser_12@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adnewuser_13@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adnewuser_14@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adnewuser_15@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adnewuser_16@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adnewuser_17@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adnewuser_18@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adnewuser_19@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adnewuser_20@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adnewuser_21@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adnewuser_22@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adnewuser_23@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adnewuser_24@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adnewuser_25@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adnewuser_26@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adnewuser_27@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adnewuser_28@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adnewuser_29@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adnewuser_30@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adnewuser_31@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adnewuser_32@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adnewuser_33@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adnewuser_34@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adnewuser_35@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adnewuser_36@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adnewuser_37@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adnewuser_38@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adnewuser_39@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adnewuser_40@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adnewuser_41@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adnewuser_42@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adnewuser_43@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adnewuser_44@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adnewuser_45@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adnewuser_46@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adnewuser_47@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adnewuser_48@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adnewuser_49@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adnewuser_50@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adnewuser_51@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adnewuser_52@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adnewuser_53@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adnewuser_54@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adnewuser_55@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adnewuser_56@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adnewuser_57@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adnewuser_58@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adnewuser_59@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adnewuser_60@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adnewuser_61@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adnewuser_62@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adnewuser_63@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adnewuser_64@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adnewuser_65@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adnewuser_66@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adnewuser_67@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adnewuser_68@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adnewuser_69@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adnewuser_70@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adnewuser_71@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adnewuser_72@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adnewuser_73@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adnewuser_74@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adnewuser_75@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adnewuser_76@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adnewuser_77@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adnewuser_78@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adnewuser_79@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adnewuser_80@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adnewuser_81@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adnewuser_82@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adnewuser_83@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adnewuser_84@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adnewuser_85@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adnewuser_86@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adnewuser_87@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adnewuser_88@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adnewuser_89@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adnewuser_90@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adnewuser_91@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adnewuser_92@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adnewuser_93@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adnewuser_94@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adnewuser_95@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adnewuser_96@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adnewuser_97@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adnewuser_98@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adnewuser_99@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adnewuser_100@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adnewuser_101@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adnewuser_102@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adnewuser_103@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adnewuser_104@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adnewuser_105@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adnewuser_106@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adnewuser_107@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adnewuser_108@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adnewuser_109@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adnewuser_110@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adnewuser_111@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adnewuser_112@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adnewuser_113@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adnewuser_114@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adnewuser_115@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adnewuser_116@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adnewuser_117@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adnewuser_118@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adnewuser_119@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adnewuser_120@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adnewuser_121@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adnewuser_122@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adnewuser_123@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adnewuser_124@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adnewuser_125@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adnewuser_126@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adnewuser_127@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adnewuser_128@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adnewuser_129@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adnewuser_130@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adnewuser_131@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adnewuser_132@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adnewuser_133@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adnewuser_134@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adnewuser_135@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adnewuser_136@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adnewuser_137@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adnewuser_138@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adnewuser_139@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adnewuser_140@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adnewuser_141@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adnewuser_142@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adnewuser_143@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adnewuser_144@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adnewuser_145@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adnewuser_146@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adnewuser_147@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adnewuser_148@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adnewuser_149@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adnewuser_150@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adnewuser_151@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adnewuser_152@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adnewuser_153@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adnewuser_154@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adnewuser_155@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adnewuser_156@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adnewuser_157@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adnewuser_158@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adnewuser_159@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adnewuser_160@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adnewuser_161@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adnewuser_162@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adnewuser_163@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adnewuser_164@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adnewuser_165@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adnewuser_166@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adnewuser_167@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adnewuser_168@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adnewuser_169@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adnewuser_170@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adnewuser_171@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adnewuser_172@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adnewuser_173@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adnewuser_174@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adnewuser_175@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adnewuser_176@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adnewuser_177@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adnewuser_178@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adnewuser_179@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adnewuser_180@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adnewuser_181@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adnewuser_182@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adnewuser_183@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adnewuser_184@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adnewuser_185@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adnewuser_186@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adnewuser_187@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adnewuser_188@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adnewuser_189@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adnewuser_190@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adnewuser_191@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adnewuser_192@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adnewuser_193@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adnewuser_194@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adnewuser_195@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adnewuser_196@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adnewuser_197@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adnewuser_198@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adnewuser_199@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adnewuser_200@mailinator.com</t>
   </si>
 </sst>
 </file>
@@ -145,18 +724,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B197"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F20" activeCellId="0" sqref="F20"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col min="1" max="1" hidden="false" style="0" width="24.8367346938776" collapsed="true"/>
-    <col min="2" max="2" hidden="false" style="0" width="11.4744897959184" collapsed="true"/>
-    <col min="8" max="8" hidden="false" style="0" width="31.3163265306122" collapsed="true"/>
-    <col min="9" max="9" hidden="false" style="0" width="23.3520408163265" collapsed="true"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="28.2142857142857"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="7" min="3" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="27.2704081632653"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="22.4081632653061"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -167,28 +748,1575 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
+      <c r="B3" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B4" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B33" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="B34" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="B35" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="B36" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="B37" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B38" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="B39" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="B40" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="B41" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="B42" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="B43" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="B44" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="B45" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="B46" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="B47" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="B48" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="B49" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="B50" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="B51" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="B52" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="B53" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="B54" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="B55" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="B56" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="B57" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="B58" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="B59" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="B60" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="B61" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="B62" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="B63" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="B64" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="B65" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="B66" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="B67" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="B68" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="B69" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="B70" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="B71" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="B72" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="B73" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="B74" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="B75" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="B76" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="B77" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="B78" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="B79" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="B80" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="B81" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="B82" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="B83" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="B84" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="B85" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="B86" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="B87" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="B88" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="B89" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="B90" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="B91" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="B92" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="B93" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="B94" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="B95" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="B96" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="B97" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="B98" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="B99" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="B100" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="B101" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="B102" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="B103" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="B104" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="B105" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B106" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="B107" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="B108" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="B109" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="B110" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="B111" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="B112" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="B113" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="B114" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="B115" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="B116" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="B117" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="B118" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="B119" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="B120" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A121" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="B121" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="B122" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="B123" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="B124" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A125" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="B125" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="B126" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="B127" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A128" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="B128" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A129" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="B129" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A130" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="B130" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A131" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="B131" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A132" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="B132" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A133" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="B133" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A134" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="B134" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A135" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="B135" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A136" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="B136" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A137" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="B137" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A138" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="B138" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A139" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="B139" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A140" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="B140" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A141" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="B141" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A142" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="B142" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A143" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="B143" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A144" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="B144" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A145" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="B145" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A146" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="B146" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A147" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="B147" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A148" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="B148" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A149" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="B149" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A150" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="B150" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A151" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="B151" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A152" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="B152" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A153" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="B153" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A154" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="B154" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A155" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="B155" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A156" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="B156" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A157" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="B157" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A158" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="B158" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A159" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="B159" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A160" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="B160" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A161" s="0" t="s">
+        <v>162</v>
+      </c>
+      <c r="B161" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A162" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="B162" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A163" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="B163" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A164" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="B164" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A165" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="B165" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A166" s="0" t="s">
+        <v>167</v>
+      </c>
+      <c r="B166" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A167" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="B167" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A168" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="B168" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A169" s="0" t="s">
+        <v>170</v>
+      </c>
+      <c r="B169" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A170" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="B170" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A171" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="B171" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A172" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="B172" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A173" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="B173" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A174" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="B174" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A175" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="B175" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A176" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="B176" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A177" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="B177" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A178" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="B178" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A179" s="0" t="s">
+        <v>180</v>
+      </c>
+      <c r="B179" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A180" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="B180" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A181" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="B181" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A182" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="B182" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A183" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="B183" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A184" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="B184" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A185" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="B185" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A186" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="B186" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A187" s="0" t="s">
+        <v>188</v>
+      </c>
+      <c r="B187" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A188" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="B188" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A189" s="0" t="s">
+        <v>190</v>
+      </c>
+      <c r="B189" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A190" s="0" t="s">
+        <v>191</v>
+      </c>
+      <c r="B190" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A191" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="B191" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A192" s="0" t="s">
+        <v>193</v>
+      </c>
+      <c r="B192" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A193" s="0" t="s">
+        <v>194</v>
+      </c>
+      <c r="B193" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A194" s="0" t="s">
+        <v>195</v>
+      </c>
+      <c r="B194" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A195" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="B195" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A196" s="0" t="s">
+        <v>197</v>
+      </c>
+      <c r="B196" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A197" s="0" t="s">
+        <v>198</v>
+      </c>
+      <c r="B197" s="0" t="s">
         <v>3</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="newuser3@mailinator.com"/>
-    <hyperlink ref="A3" r:id="rId2" display="newuser4@mailinator.com"/>
-    <hyperlink ref="A4" r:id="rId3" display="newuser5@mailinator.com"/>
-  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/src/main/java/dataRepository/logindata.xlsx
+++ b/src/main/java/dataRepository/logindata.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="13">
   <si>
     <t xml:space="preserve">UserName</t>
   </si>
@@ -28,28 +28,37 @@
     <t xml:space="preserve">Password</t>
   </si>
   <si>
-    <t xml:space="preserve">exu34@mailinator.com</t>
+    <t xml:space="preserve">exu41@mailinator.com</t>
   </si>
   <si>
     <t xml:space="preserve">password</t>
   </si>
   <si>
-    <t xml:space="preserve">exu35@mailinator.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">exu36@mailinator.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">exu37@mailinator.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">exu38@mailinator.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">exu39@mailinator.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">exu40@mailinator.com</t>
+    <t xml:space="preserve">exu42@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">exu43@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">exu44@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">exu45@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">exu46@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">exu47@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">exu48@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">exu49@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">exu50@mailinator.com</t>
   </si>
 </sst>
 </file>
@@ -157,20 +166,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
+      <selection pane="topLeft" activeCell="G11" activeCellId="0" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col min="1" max="1" hidden="false" style="0" width="25.1071428571429" collapsed="true"/>
-    <col min="2" max="2" hidden="false" style="0" width="11.7448979591837" collapsed="true"/>
-    <col min="3" max="7" hidden="false" style="0" width="8.23469387755102" collapsed="true"/>
-    <col min="8" max="8" hidden="false" style="0" width="31.7244897959184" collapsed="true"/>
-    <col min="9" max="9" hidden="false" style="0" width="23.7602040816327" collapsed="true"/>
-    <col min="10" max="1025" hidden="false" style="0" width="8.23469387755102" collapsed="true"/>
+    <col min="1" max="1" hidden="false" style="0" width="24.8367346938776" collapsed="true"/>
+    <col min="2" max="2" hidden="false" style="0" width="11.4744897959184" collapsed="true"/>
+    <col min="8" max="8" hidden="false" style="0" width="31.3163265306122" collapsed="true"/>
+    <col min="9" max="9" hidden="false" style="0" width="23.3520408163265" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -182,63 +189,46 @@
       </c>
     </row>
     <row r="2" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>4</v>
+      <c r="A2" s="0" t="s">
+        <v>8</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>5</v>
+      <c r="A3" s="0" t="s">
+        <v>9</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
+      <c r="A4" s="0" t="s">
+        <v>10</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>7</v>
+      <c r="A5" s="0" t="s">
+        <v>11</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>8</v>
+      <c r="A6" s="0" t="s">
+        <v>12</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="exu34@mailinator.com"/>
-    <hyperlink ref="A3" r:id="rId2" display="exu35@mailinator.com"/>
-    <hyperlink ref="A4" r:id="rId3" display="exu36@mailinator.com"/>
-    <hyperlink ref="A5" r:id="rId4" display="exu37@mailinator.com"/>
-    <hyperlink ref="A6" r:id="rId5" display="exu38@mailinator.com"/>
-    <hyperlink ref="A7" r:id="rId6" display="exu39@mailinator.com"/>
-    <hyperlink ref="A8" r:id="rId7" display="exu40@mailinator.com"/>
-  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/src/main/java/dataRepository/logindata.xlsx
+++ b/src/main/java/dataRepository/logindata.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
   <si>
     <t xml:space="preserve">UserName</t>
   </si>
@@ -28,28 +28,13 @@
     <t xml:space="preserve">Password</t>
   </si>
   <si>
-    <t xml:space="preserve">exu34@mailinator.com</t>
+    <t xml:space="preserve">exu51@mailinator.com</t>
   </si>
   <si>
     <t xml:space="preserve">password</t>
   </si>
   <si>
-    <t xml:space="preserve">exu35@mailinator.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">exu36@mailinator.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">exu37@mailinator.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">exu38@mailinator.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">exu39@mailinator.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">exu40@mailinator.com</t>
+    <t xml:space="preserve">exu52@mailinator.com</t>
   </si>
 </sst>
 </file>
@@ -157,20 +142,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
+      <selection pane="topLeft" activeCell="I17" activeCellId="0" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col min="1" max="1" hidden="false" style="0" width="25.1071428571429" collapsed="true"/>
-    <col min="2" max="2" hidden="false" style="0" width="11.7448979591837" collapsed="true"/>
-    <col min="3" max="7" hidden="false" style="0" width="8.23469387755102" collapsed="true"/>
-    <col min="8" max="8" hidden="false" style="0" width="31.7244897959184" collapsed="true"/>
-    <col min="9" max="9" hidden="false" style="0" width="23.7602040816327" collapsed="true"/>
-    <col min="10" max="1025" hidden="false" style="0" width="8.23469387755102" collapsed="true"/>
+    <col min="1" max="1" hidden="false" style="0" width="24.3010204081633" collapsed="true"/>
+    <col min="2" max="2" hidden="false" style="0" width="10.9336734693878" collapsed="true"/>
+    <col min="3" max="7" hidden="false" style="0" width="8.36734693877551" collapsed="true"/>
+    <col min="8" max="8" hidden="false" style="0" width="30.5102040816327" collapsed="true"/>
+    <col min="9" max="9" hidden="false" style="0" width="22.6785714285714" collapsed="true"/>
+    <col min="10" max="1025" hidden="false" style="0" width="8.36734693877551" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -189,55 +174,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="exu34@mailinator.com"/>
-    <hyperlink ref="A3" r:id="rId2" display="exu35@mailinator.com"/>
-    <hyperlink ref="A4" r:id="rId3" display="exu36@mailinator.com"/>
-    <hyperlink ref="A5" r:id="rId4" display="exu37@mailinator.com"/>
-    <hyperlink ref="A6" r:id="rId5" display="exu38@mailinator.com"/>
-    <hyperlink ref="A7" r:id="rId6" display="exu39@mailinator.com"/>
-    <hyperlink ref="A8" r:id="rId7" display="exu40@mailinator.com"/>
+    <hyperlink ref="A2" r:id="rId1" display="exu51@mailinator.com"/>
+    <hyperlink ref="A3" r:id="rId2" display="exu52@mailinator.com"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/src/main/java/dataRepository/logindata.xlsx
+++ b/src/main/java/dataRepository/logindata.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="9">
   <si>
     <t xml:space="preserve">UserName</t>
   </si>
@@ -28,37 +28,25 @@
     <t xml:space="preserve">Password</t>
   </si>
   <si>
-    <t xml:space="preserve">exu41@mailinator.com</t>
+    <t xml:space="preserve">exu55@mailinator.com</t>
   </si>
   <si>
     <t xml:space="preserve">password</t>
   </si>
   <si>
-    <t xml:space="preserve">exu42@mailinator.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">exu43@mailinator.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">exu44@mailinator.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">exu45@mailinator.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">exu46@mailinator.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">exu47@mailinator.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">exu48@mailinator.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">exu49@mailinator.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">exu50@mailinator.com</t>
+    <t xml:space="preserve">exu56@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">exu57@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">exu58@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">exu59@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">exu60@mailinator.com</t>
   </si>
 </sst>
 </file>
@@ -166,18 +154,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G11" activeCellId="0" sqref="G11"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col min="1" max="1" hidden="false" style="0" width="24.8367346938776" collapsed="true"/>
-    <col min="2" max="2" hidden="false" style="0" width="11.4744897959184" collapsed="true"/>
-    <col min="8" max="8" hidden="false" style="0" width="31.3163265306122" collapsed="true"/>
-    <col min="9" max="9" hidden="false" style="0" width="23.3520408163265" collapsed="true"/>
+    <col min="1" max="1" hidden="false" style="0" width="24.3010204081633" collapsed="true"/>
+    <col min="2" max="2" hidden="false" style="0" width="10.9336734693878" collapsed="true"/>
+    <col min="3" max="7" hidden="false" style="0" width="8.36734693877551" collapsed="true"/>
+    <col min="8" max="8" hidden="false" style="0" width="30.5102040816327" collapsed="true"/>
+    <col min="9" max="9" hidden="false" style="0" width="22.6785714285714" collapsed="true"/>
+    <col min="10" max="1025" hidden="false" style="0" width="8.36734693877551" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -190,7 +180,7 @@
     </row>
     <row r="2" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>3</v>
@@ -198,7 +188,7 @@
     </row>
     <row r="3" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>3</v>
@@ -206,7 +196,7 @@
     </row>
     <row r="4" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>3</v>
@@ -214,17 +204,9 @@
     </row>
     <row r="5" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="0" t="s">
         <v>3</v>
       </c>
     </row>

--- a/src/main/java/dataRepository/logindata.xlsx
+++ b/src/main/java/dataRepository/logindata.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="177">
   <si>
     <t xml:space="preserve">UserName</t>
   </si>
@@ -28,76 +28,10 @@
     <t xml:space="preserve">Password</t>
   </si>
   <si>
-    <t xml:space="preserve">adnewuser_5@mailinator.com</t>
+    <t xml:space="preserve">adnewuser_27@mailinator.com</t>
   </si>
   <si>
     <t xml:space="preserve">password</t>
-  </si>
-  <si>
-    <t xml:space="preserve">adnewuser_6@mailinator.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">adnewuser_7@mailinator.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">adnewuser_8@mailinator.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">adnewuser_9@mailinator.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">adnewuser_10@mailinator.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">adnewuser_11@mailinator.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">adnewuser_12@mailinator.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">adnewuser_13@mailinator.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">adnewuser_14@mailinator.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">adnewuser_15@mailinator.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">adnewuser_16@mailinator.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">adnewuser_17@mailinator.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">adnewuser_18@mailinator.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">adnewuser_19@mailinator.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">adnewuser_20@mailinator.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">adnewuser_21@mailinator.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">adnewuser_22@mailinator.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">adnewuser_23@mailinator.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">adnewuser_24@mailinator.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">adnewuser_25@mailinator.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">adnewuser_26@mailinator.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">adnewuser_27@mailinator.com</t>
   </si>
   <si>
     <t xml:space="preserve">adnewuser_28@mailinator.com</t>
@@ -724,7 +658,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B197"/>
+  <dimension ref="A1:B175"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
@@ -732,12 +666,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="28.2142857142857"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.8010204081633"/>
-    <col collapsed="false" hidden="false" max="7" min="3" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="27.2704081632653"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="22.4081632653061"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="27.5408163265306"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.530612244898"/>
+    <col collapsed="false" hidden="false" max="7" min="3" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="26.4591836734694"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="21.8673469387755"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2137,182 +2071,6 @@
         <v>176</v>
       </c>
       <c r="B175" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A176" s="0" t="s">
-        <v>177</v>
-      </c>
-      <c r="B176" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A177" s="0" t="s">
-        <v>178</v>
-      </c>
-      <c r="B177" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A178" s="0" t="s">
-        <v>179</v>
-      </c>
-      <c r="B178" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A179" s="0" t="s">
-        <v>180</v>
-      </c>
-      <c r="B179" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A180" s="0" t="s">
-        <v>181</v>
-      </c>
-      <c r="B180" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A181" s="0" t="s">
-        <v>182</v>
-      </c>
-      <c r="B181" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A182" s="0" t="s">
-        <v>183</v>
-      </c>
-      <c r="B182" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A183" s="0" t="s">
-        <v>184</v>
-      </c>
-      <c r="B183" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A184" s="0" t="s">
-        <v>185</v>
-      </c>
-      <c r="B184" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A185" s="0" t="s">
-        <v>186</v>
-      </c>
-      <c r="B185" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A186" s="0" t="s">
-        <v>187</v>
-      </c>
-      <c r="B186" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A187" s="0" t="s">
-        <v>188</v>
-      </c>
-      <c r="B187" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A188" s="0" t="s">
-        <v>189</v>
-      </c>
-      <c r="B188" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A189" s="0" t="s">
-        <v>190</v>
-      </c>
-      <c r="B189" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A190" s="0" t="s">
-        <v>191</v>
-      </c>
-      <c r="B190" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A191" s="0" t="s">
-        <v>192</v>
-      </c>
-      <c r="B191" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A192" s="0" t="s">
-        <v>193</v>
-      </c>
-      <c r="B192" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A193" s="0" t="s">
-        <v>194</v>
-      </c>
-      <c r="B193" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A194" s="0" t="s">
-        <v>195</v>
-      </c>
-      <c r="B194" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A195" s="0" t="s">
-        <v>196</v>
-      </c>
-      <c r="B195" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A196" s="0" t="s">
-        <v>197</v>
-      </c>
-      <c r="B196" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A197" s="0" t="s">
-        <v>198</v>
-      </c>
-      <c r="B197" s="0" t="s">
         <v>3</v>
       </c>
     </row>

--- a/src/main/java/dataRepository/logindata.xlsx
+++ b/src/main/java/dataRepository/logindata.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t xml:space="preserve">UserName</t>
   </si>
@@ -28,16 +28,10 @@
     <t xml:space="preserve">Password</t>
   </si>
   <si>
-    <t xml:space="preserve">newuser10@mailinator.com</t>
+    <t xml:space="preserve">exu154@mailinator.com</t>
   </si>
   <si>
     <t xml:space="preserve">password</t>
-  </si>
-  <si>
-    <t xml:space="preserve">newuser11@mailinator.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">newuser12@mailinator.com</t>
   </si>
 </sst>
 </file>
@@ -145,17 +139,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="28.7551020408163"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.1377551020408"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.23469387755102"/>
+    <col min="1" max="1" hidden="false" style="0" width="25.2448979591837" collapsed="true"/>
+    <col min="2" max="2" hidden="false" style="0" width="19.3061224489796" collapsed="true"/>
+    <col min="3" max="1025" hidden="false" style="0" width="8.50510204081633" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -164,30 +158,6 @@
       </c>
       <c r="B1" s="0" t="s">
         <v>1</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/java/dataRepository/logindata.xlsx
+++ b/src/main/java/dataRepository/logindata.xlsx
@@ -666,12 +666,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="27.5408163265306"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.530612244898"/>
-    <col collapsed="false" hidden="false" max="7" min="3" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="26.4591836734694"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="21.8673469387755"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.50510204081633"/>
+    <col min="1" max="1" hidden="false" style="0" width="27.5408163265306" collapsed="true"/>
+    <col min="2" max="2" hidden="false" style="0" width="10.530612244898" collapsed="true"/>
+    <col min="3" max="7" hidden="false" style="0" width="8.50510204081633" collapsed="true"/>
+    <col min="8" max="8" hidden="false" style="0" width="26.4591836734694" collapsed="true"/>
+    <col min="9" max="9" hidden="false" style="0" width="21.8673469387755" collapsed="true"/>
+    <col min="10" max="1025" hidden="false" style="0" width="8.50510204081633" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -682,1395 +682,923 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>2</v>
+        <v>62</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>4</v>
+        <v>63</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>6</v>
+        <v>65</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>7</v>
+        <v>66</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>8</v>
+        <v>67</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>9</v>
+        <v>68</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>10</v>
+        <v>69</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>11</v>
+        <v>70</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="B11" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="B12" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>14</v>
+        <v>73</v>
       </c>
       <c r="B13" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>15</v>
+        <v>74</v>
       </c>
       <c r="B14" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>16</v>
+        <v>75</v>
       </c>
       <c r="B15" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>17</v>
+        <v>76</v>
       </c>
       <c r="B16" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>18</v>
+        <v>77</v>
       </c>
       <c r="B17" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>19</v>
+        <v>78</v>
       </c>
       <c r="B18" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>20</v>
+        <v>79</v>
       </c>
       <c r="B19" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>21</v>
+        <v>80</v>
       </c>
       <c r="B20" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>22</v>
+        <v>81</v>
       </c>
       <c r="B21" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>23</v>
+        <v>82</v>
       </c>
       <c r="B22" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>24</v>
+        <v>83</v>
       </c>
       <c r="B23" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>25</v>
+        <v>84</v>
       </c>
       <c r="B24" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>26</v>
+        <v>85</v>
       </c>
       <c r="B25" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>27</v>
+        <v>86</v>
       </c>
       <c r="B26" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>28</v>
+        <v>87</v>
       </c>
       <c r="B27" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>29</v>
+        <v>88</v>
       </c>
       <c r="B28" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>30</v>
+        <v>89</v>
       </c>
       <c r="B29" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>31</v>
+        <v>90</v>
       </c>
       <c r="B30" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>32</v>
+        <v>91</v>
       </c>
       <c r="B31" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>33</v>
+        <v>92</v>
       </c>
       <c r="B32" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>34</v>
+        <v>93</v>
       </c>
       <c r="B33" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>35</v>
+        <v>94</v>
       </c>
       <c r="B34" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>36</v>
+        <v>95</v>
       </c>
       <c r="B35" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>37</v>
+        <v>96</v>
       </c>
       <c r="B36" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>38</v>
+        <v>97</v>
       </c>
       <c r="B37" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>39</v>
+        <v>98</v>
       </c>
       <c r="B38" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>40</v>
+        <v>99</v>
       </c>
       <c r="B39" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>41</v>
+        <v>100</v>
       </c>
       <c r="B40" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>42</v>
+        <v>101</v>
       </c>
       <c r="B41" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>43</v>
+        <v>102</v>
       </c>
       <c r="B42" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>44</v>
+        <v>103</v>
       </c>
       <c r="B43" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>45</v>
+        <v>104</v>
       </c>
       <c r="B44" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>46</v>
+        <v>105</v>
       </c>
       <c r="B45" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>47</v>
+        <v>106</v>
       </c>
       <c r="B46" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>48</v>
+        <v>107</v>
       </c>
       <c r="B47" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>49</v>
+        <v>108</v>
       </c>
       <c r="B48" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>50</v>
+        <v>109</v>
       </c>
       <c r="B49" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>51</v>
+        <v>110</v>
       </c>
       <c r="B50" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>52</v>
+        <v>111</v>
       </c>
       <c r="B51" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>53</v>
+        <v>112</v>
       </c>
       <c r="B52" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>54</v>
+        <v>113</v>
       </c>
       <c r="B53" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>55</v>
+        <v>114</v>
       </c>
       <c r="B54" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>56</v>
+        <v>115</v>
       </c>
       <c r="B55" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>57</v>
+        <v>116</v>
       </c>
       <c r="B56" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>58</v>
+        <v>117</v>
       </c>
       <c r="B57" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>59</v>
+        <v>118</v>
       </c>
       <c r="B58" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>60</v>
+        <v>119</v>
       </c>
       <c r="B59" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>61</v>
+        <v>120</v>
       </c>
       <c r="B60" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>62</v>
+        <v>121</v>
       </c>
       <c r="B61" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>63</v>
+        <v>122</v>
       </c>
       <c r="B62" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>64</v>
+        <v>123</v>
       </c>
       <c r="B63" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>65</v>
+        <v>124</v>
       </c>
       <c r="B64" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>66</v>
+        <v>125</v>
       </c>
       <c r="B65" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>67</v>
+        <v>126</v>
       </c>
       <c r="B66" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>68</v>
+        <v>127</v>
       </c>
       <c r="B67" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>69</v>
+        <v>128</v>
       </c>
       <c r="B68" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>70</v>
+        <v>129</v>
       </c>
       <c r="B69" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>71</v>
+        <v>130</v>
       </c>
       <c r="B70" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>72</v>
+        <v>131</v>
       </c>
       <c r="B71" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>73</v>
+        <v>132</v>
       </c>
       <c r="B72" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>74</v>
+        <v>133</v>
       </c>
       <c r="B73" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>75</v>
+        <v>134</v>
       </c>
       <c r="B74" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>76</v>
+        <v>135</v>
       </c>
       <c r="B75" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>77</v>
+        <v>136</v>
       </c>
       <c r="B76" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>78</v>
+        <v>137</v>
       </c>
       <c r="B77" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>79</v>
+        <v>138</v>
       </c>
       <c r="B78" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>80</v>
+        <v>139</v>
       </c>
       <c r="B79" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>81</v>
+        <v>140</v>
       </c>
       <c r="B80" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
-        <v>82</v>
+        <v>141</v>
       </c>
       <c r="B81" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>83</v>
+        <v>142</v>
       </c>
       <c r="B82" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>84</v>
+        <v>143</v>
       </c>
       <c r="B83" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>85</v>
+        <v>144</v>
       </c>
       <c r="B84" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
-        <v>86</v>
+        <v>145</v>
       </c>
       <c r="B85" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
-        <v>87</v>
+        <v>146</v>
       </c>
       <c r="B86" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
-        <v>88</v>
+        <v>147</v>
       </c>
       <c r="B87" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
-        <v>89</v>
+        <v>148</v>
       </c>
       <c r="B88" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
-        <v>90</v>
+        <v>149</v>
       </c>
       <c r="B89" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
-        <v>91</v>
+        <v>150</v>
       </c>
       <c r="B90" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
-        <v>92</v>
+        <v>151</v>
       </c>
       <c r="B91" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
-        <v>93</v>
+        <v>152</v>
       </c>
       <c r="B92" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
-        <v>94</v>
+        <v>153</v>
       </c>
       <c r="B93" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
-        <v>95</v>
+        <v>154</v>
       </c>
       <c r="B94" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="95" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
-        <v>96</v>
+        <v>155</v>
       </c>
       <c r="B95" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="96" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
-        <v>97</v>
+        <v>156</v>
       </c>
       <c r="B96" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
-        <v>98</v>
+        <v>157</v>
       </c>
       <c r="B97" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="98" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
-        <v>99</v>
+        <v>158</v>
       </c>
       <c r="B98" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="99" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="s">
-        <v>100</v>
+        <v>159</v>
       </c>
       <c r="B99" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="100" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
-        <v>101</v>
+        <v>160</v>
       </c>
       <c r="B100" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="101" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="s">
-        <v>102</v>
+        <v>161</v>
       </c>
       <c r="B101" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="102" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="s">
-        <v>103</v>
+        <v>162</v>
       </c>
       <c r="B102" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="103" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="s">
-        <v>104</v>
+        <v>163</v>
       </c>
       <c r="B103" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="104" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="s">
-        <v>105</v>
+        <v>164</v>
       </c>
       <c r="B104" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="105" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
-        <v>106</v>
+        <v>165</v>
       </c>
       <c r="B105" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="106" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
-        <v>107</v>
+        <v>166</v>
       </c>
       <c r="B106" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="107" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="s">
-        <v>108</v>
+        <v>167</v>
       </c>
       <c r="B107" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="108" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="s">
-        <v>109</v>
+        <v>168</v>
       </c>
       <c r="B108" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="109" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="s">
-        <v>110</v>
+        <v>169</v>
       </c>
       <c r="B109" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="110" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="s">
-        <v>111</v>
+        <v>170</v>
       </c>
       <c r="B110" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="111" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="s">
-        <v>112</v>
+        <v>171</v>
       </c>
       <c r="B111" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="112" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="s">
-        <v>113</v>
+        <v>172</v>
       </c>
       <c r="B112" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="113" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="s">
-        <v>114</v>
+        <v>173</v>
       </c>
       <c r="B113" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="114" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="s">
-        <v>115</v>
+        <v>174</v>
       </c>
       <c r="B114" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="115" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="s">
-        <v>116</v>
+        <v>175</v>
       </c>
       <c r="B115" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="116" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="s">
-        <v>117</v>
+        <v>176</v>
       </c>
       <c r="B116" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="0" t="s">
-        <v>118</v>
-      </c>
-      <c r="B117" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="0" t="s">
-        <v>119</v>
-      </c>
-      <c r="B118" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="0" t="s">
-        <v>120</v>
-      </c>
-      <c r="B119" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="0" t="s">
-        <v>121</v>
-      </c>
-      <c r="B120" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="0" t="s">
-        <v>122</v>
-      </c>
-      <c r="B121" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="B122" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="0" t="s">
-        <v>124</v>
-      </c>
-      <c r="B123" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="0" t="s">
-        <v>125</v>
-      </c>
-      <c r="B124" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="0" t="s">
-        <v>126</v>
-      </c>
-      <c r="B125" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="0" t="s">
-        <v>127</v>
-      </c>
-      <c r="B126" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="B127" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="0" t="s">
-        <v>129</v>
-      </c>
-      <c r="B128" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="0" t="s">
-        <v>130</v>
-      </c>
-      <c r="B129" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="B130" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="B131" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="B132" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="0" t="s">
-        <v>134</v>
-      </c>
-      <c r="B133" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="0" t="s">
-        <v>135</v>
-      </c>
-      <c r="B134" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="0" t="s">
-        <v>136</v>
-      </c>
-      <c r="B135" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="0" t="s">
-        <v>137</v>
-      </c>
-      <c r="B136" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="0" t="s">
-        <v>138</v>
-      </c>
-      <c r="B137" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="0" t="s">
-        <v>139</v>
-      </c>
-      <c r="B138" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="0" t="s">
-        <v>140</v>
-      </c>
-      <c r="B139" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="0" t="s">
-        <v>141</v>
-      </c>
-      <c r="B140" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="0" t="s">
-        <v>142</v>
-      </c>
-      <c r="B141" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="B142" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="0" t="s">
-        <v>144</v>
-      </c>
-      <c r="B143" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="0" t="s">
-        <v>145</v>
-      </c>
-      <c r="B144" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="0" t="s">
-        <v>146</v>
-      </c>
-      <c r="B145" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="0" t="s">
-        <v>147</v>
-      </c>
-      <c r="B146" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="0" t="s">
-        <v>148</v>
-      </c>
-      <c r="B147" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="0" t="s">
-        <v>149</v>
-      </c>
-      <c r="B148" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="0" t="s">
-        <v>150</v>
-      </c>
-      <c r="B149" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A150" s="0" t="s">
-        <v>151</v>
-      </c>
-      <c r="B150" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A151" s="0" t="s">
-        <v>152</v>
-      </c>
-      <c r="B151" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A152" s="0" t="s">
-        <v>153</v>
-      </c>
-      <c r="B152" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A153" s="0" t="s">
-        <v>154</v>
-      </c>
-      <c r="B153" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A154" s="0" t="s">
-        <v>155</v>
-      </c>
-      <c r="B154" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A155" s="0" t="s">
-        <v>156</v>
-      </c>
-      <c r="B155" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A156" s="0" t="s">
-        <v>157</v>
-      </c>
-      <c r="B156" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A157" s="0" t="s">
-        <v>158</v>
-      </c>
-      <c r="B157" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A158" s="0" t="s">
-        <v>159</v>
-      </c>
-      <c r="B158" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A159" s="0" t="s">
-        <v>160</v>
-      </c>
-      <c r="B159" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A160" s="0" t="s">
-        <v>161</v>
-      </c>
-      <c r="B160" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A161" s="0" t="s">
-        <v>162</v>
-      </c>
-      <c r="B161" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A162" s="0" t="s">
-        <v>163</v>
-      </c>
-      <c r="B162" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A163" s="0" t="s">
-        <v>164</v>
-      </c>
-      <c r="B163" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A164" s="0" t="s">
-        <v>165</v>
-      </c>
-      <c r="B164" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A165" s="0" t="s">
-        <v>166</v>
-      </c>
-      <c r="B165" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A166" s="0" t="s">
-        <v>167</v>
-      </c>
-      <c r="B166" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A167" s="0" t="s">
-        <v>168</v>
-      </c>
-      <c r="B167" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A168" s="0" t="s">
-        <v>169</v>
-      </c>
-      <c r="B168" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A169" s="0" t="s">
-        <v>170</v>
-      </c>
-      <c r="B169" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A170" s="0" t="s">
-        <v>171</v>
-      </c>
-      <c r="B170" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A171" s="0" t="s">
-        <v>172</v>
-      </c>
-      <c r="B171" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A172" s="0" t="s">
-        <v>173</v>
-      </c>
-      <c r="B172" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A173" s="0" t="s">
-        <v>174</v>
-      </c>
-      <c r="B173" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A174" s="0" t="s">
-        <v>175</v>
-      </c>
-      <c r="B174" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A175" s="0" t="s">
-        <v>176</v>
-      </c>
-      <c r="B175" s="0" t="s">
         <v>3</v>
       </c>
     </row>

--- a/src/main/java/dataRepository/logindata.xlsx
+++ b/src/main/java/dataRepository/logindata.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="16">
   <si>
     <t xml:space="preserve">UserName</t>
   </si>
@@ -28,13 +28,46 @@
     <t xml:space="preserve">Password</t>
   </si>
   <si>
-    <t xml:space="preserve">exu51@mailinator.com</t>
+    <t xml:space="preserve">Auttesttt_4@mailinator.com</t>
   </si>
   <si>
     <t xml:space="preserve">password</t>
   </si>
   <si>
-    <t xml:space="preserve">exu52@mailinator.com</t>
+    <t xml:space="preserve">Auttesttt_5@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Auttesttt_6@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Auttesttt_7@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Auttesttt_8@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Auttesttt_9@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Auttesttt_10@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Auttesttt_11@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Auttesttt_12@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Auttesttt_13@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Auttesttt_14@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Auttesttt_15@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Auttesttt_16@mailinator.com</t>
   </si>
 </sst>
 </file>
@@ -142,20 +175,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I17" activeCellId="0" sqref="I17"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3:B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col min="1" max="1" hidden="false" style="0" width="24.3010204081633" collapsed="true"/>
-    <col min="2" max="2" hidden="false" style="0" width="10.9336734693878" collapsed="true"/>
-    <col min="3" max="7" hidden="false" style="0" width="8.36734693877551" collapsed="true"/>
-    <col min="8" max="8" hidden="false" style="0" width="30.5102040816327" collapsed="true"/>
-    <col min="9" max="9" hidden="false" style="0" width="22.6785714285714" collapsed="true"/>
-    <col min="10" max="1025" hidden="false" style="0" width="8.36734693877551" collapsed="true"/>
+    <col min="1" max="1" hidden="false" style="0" width="23.0816326530612" collapsed="true"/>
+    <col min="2" max="2" hidden="false" style="0" width="10.530612244898" collapsed="true"/>
+    <col min="3" max="7" hidden="false" style="0" width="8.50510204081633" collapsed="true"/>
+    <col min="8" max="8" hidden="false" style="0" width="29.4285714285714" collapsed="true"/>
+    <col min="9" max="9" hidden="false" style="0" width="21.8673469387755" collapsed="true"/>
+    <col min="10" max="1025" hidden="false" style="0" width="8.50510204081633" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -167,18 +200,62 @@
       </c>
     </row>
     <row r="2" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>4</v>
+      <c r="A2" s="0" t="s">
+        <v>9</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>3</v>
       </c>
     </row>
+    <row r="3" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="exu51@mailinator.com"/>
-    <hyperlink ref="A3" r:id="rId2" display="exu52@mailinator.com"/>
-  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/src/main/java/dataRepository/logindata.xlsx
+++ b/src/main/java/dataRepository/logindata.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="60">
   <si>
     <t xml:space="preserve">UserName</t>
   </si>
@@ -28,46 +28,178 @@
     <t xml:space="preserve">Password</t>
   </si>
   <si>
-    <t xml:space="preserve">Auttesttt_4@mailinator.com</t>
+    <t xml:space="preserve">adnewuser_139@mailinator.com</t>
   </si>
   <si>
     <t xml:space="preserve">password</t>
   </si>
   <si>
-    <t xml:space="preserve">Auttesttt_5@mailinator.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Auttesttt_6@mailinator.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Auttesttt_7@mailinator.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Auttesttt_8@mailinator.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Auttesttt_9@mailinator.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Auttesttt_10@mailinator.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Auttesttt_11@mailinator.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Auttesttt_12@mailinator.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Auttesttt_13@mailinator.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Auttesttt_14@mailinator.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Auttesttt_15@mailinator.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Auttesttt_16@mailinator.com</t>
+    <t xml:space="preserve">adnewuser_140@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adnewuser_141@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adnewuser_142@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adnewuser_143@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adnewuser_144@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adnewuser_145@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adnewuser_146@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adnewuser_147@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adnewuser_148@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adnewuser_149@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adnewuser_150@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adnewuser_151@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adnewuser_152@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adnewuser_153@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adnewuser_154@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adnewuser_155@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adnewuser_156@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adnewuser_157@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adnewuser_158@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adnewuser_159@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adnewuser_160@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adnewuser_161@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adnewuser_162@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adnewuser_163@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adnewuser_164@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adnewuser_165@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adnewuser_166@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adnewuser_167@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adnewuser_168@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adnewuser_169@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adnewuser_170@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adnewuser_171@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adnewuser_172@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adnewuser_173@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adnewuser_174@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adnewuser_175@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adnewuser_176@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adnewuser_177@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adnewuser_178@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adnewuser_179@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adnewuser_180@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adnewuser_181@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adnewuser_182@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adnewuser_183@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adnewuser_184@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adnewuser_185@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adnewuser_186@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adnewuser_187@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adnewuser_188@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adnewuser_189@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adnewuser_190@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adnewuser_191@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adnewuser_192@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adnewuser_193@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adnewuser_194@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adnewuser_195@mailinator.com</t>
   </si>
 </sst>
 </file>
@@ -175,20 +307,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B58"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3:B14"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:B58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col min="1" max="1" hidden="false" style="0" width="23.0816326530612" collapsed="true"/>
-    <col min="2" max="2" hidden="false" style="0" width="10.530612244898" collapsed="true"/>
-    <col min="3" max="7" hidden="false" style="0" width="8.50510204081633" collapsed="true"/>
-    <col min="8" max="8" hidden="false" style="0" width="29.4285714285714" collapsed="true"/>
-    <col min="9" max="9" hidden="false" style="0" width="21.8673469387755" collapsed="true"/>
-    <col min="10" max="1025" hidden="false" style="0" width="8.50510204081633" collapsed="true"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="30.6428571428571"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.1224489795918"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="28.2142857142857"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="21.0612244897959"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -199,59 +329,459 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="B8" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="B9" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="B10" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="B11" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="B12" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+      <c r="B13" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B14" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B33" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="B34" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="B35" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="B36" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="B37" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B38" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="B39" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="B40" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="B41" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="B42" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="B43" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="B44" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="B45" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="B46" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="B47" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="B48" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="B49" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="B50" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="B51" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="B52" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="B53" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="B54" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="B55" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="B56" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="B57" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="B58" s="0" t="s">
         <v>3</v>
       </c>
     </row>

--- a/src/main/java/dataRepository/logindata.xlsx
+++ b/src/main/java/dataRepository/logindata.xlsx
@@ -684,7 +684,7 @@
     </row>
     <row r="2" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>62</v>
+        <v>118</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>3</v>
@@ -692,7 +692,7 @@
     </row>
     <row r="3" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>63</v>
+        <v>119</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>3</v>
@@ -700,7 +700,7 @@
     </row>
     <row r="4" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>64</v>
+        <v>120</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>3</v>
@@ -708,7 +708,7 @@
     </row>
     <row r="5" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>65</v>
+        <v>121</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>3</v>
@@ -716,7 +716,7 @@
     </row>
     <row r="6" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>66</v>
+        <v>122</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>3</v>
@@ -724,7 +724,7 @@
     </row>
     <row r="7" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>67</v>
+        <v>123</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>3</v>
@@ -732,7 +732,7 @@
     </row>
     <row r="8" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>68</v>
+        <v>124</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>3</v>
@@ -740,7 +740,7 @@
     </row>
     <row r="9" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>69</v>
+        <v>125</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>3</v>
@@ -748,7 +748,7 @@
     </row>
     <row r="10" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>70</v>
+        <v>126</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>3</v>
@@ -756,7 +756,7 @@
     </row>
     <row r="11" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>71</v>
+        <v>127</v>
       </c>
       <c r="B11" s="0" t="s">
         <v>3</v>
@@ -764,7 +764,7 @@
     </row>
     <row r="12" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>72</v>
+        <v>128</v>
       </c>
       <c r="B12" s="0" t="s">
         <v>3</v>
@@ -772,7 +772,7 @@
     </row>
     <row r="13" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>73</v>
+        <v>129</v>
       </c>
       <c r="B13" s="0" t="s">
         <v>3</v>
@@ -780,7 +780,7 @@
     </row>
     <row r="14" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>74</v>
+        <v>130</v>
       </c>
       <c r="B14" s="0" t="s">
         <v>3</v>
@@ -788,7 +788,7 @@
     </row>
     <row r="15" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>75</v>
+        <v>131</v>
       </c>
       <c r="B15" s="0" t="s">
         <v>3</v>
@@ -796,7 +796,7 @@
     </row>
     <row r="16" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>76</v>
+        <v>132</v>
       </c>
       <c r="B16" s="0" t="s">
         <v>3</v>
@@ -804,7 +804,7 @@
     </row>
     <row r="17" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>77</v>
+        <v>133</v>
       </c>
       <c r="B17" s="0" t="s">
         <v>3</v>
@@ -812,7 +812,7 @@
     </row>
     <row r="18" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>78</v>
+        <v>134</v>
       </c>
       <c r="B18" s="0" t="s">
         <v>3</v>
@@ -820,7 +820,7 @@
     </row>
     <row r="19" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>79</v>
+        <v>135</v>
       </c>
       <c r="B19" s="0" t="s">
         <v>3</v>
@@ -828,7 +828,7 @@
     </row>
     <row r="20" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>80</v>
+        <v>136</v>
       </c>
       <c r="B20" s="0" t="s">
         <v>3</v>
@@ -836,7 +836,7 @@
     </row>
     <row r="21" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>81</v>
+        <v>137</v>
       </c>
       <c r="B21" s="0" t="s">
         <v>3</v>
@@ -844,7 +844,7 @@
     </row>
     <row r="22" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>82</v>
+        <v>138</v>
       </c>
       <c r="B22" s="0" t="s">
         <v>3</v>
@@ -852,7 +852,7 @@
     </row>
     <row r="23" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>83</v>
+        <v>139</v>
       </c>
       <c r="B23" s="0" t="s">
         <v>3</v>
@@ -860,7 +860,7 @@
     </row>
     <row r="24" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>84</v>
+        <v>140</v>
       </c>
       <c r="B24" s="0" t="s">
         <v>3</v>
@@ -868,7 +868,7 @@
     </row>
     <row r="25" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>85</v>
+        <v>141</v>
       </c>
       <c r="B25" s="0" t="s">
         <v>3</v>
@@ -876,7 +876,7 @@
     </row>
     <row r="26" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>86</v>
+        <v>142</v>
       </c>
       <c r="B26" s="0" t="s">
         <v>3</v>
@@ -884,7 +884,7 @@
     </row>
     <row r="27" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>87</v>
+        <v>143</v>
       </c>
       <c r="B27" s="0" t="s">
         <v>3</v>
@@ -892,7 +892,7 @@
     </row>
     <row r="28" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>88</v>
+        <v>144</v>
       </c>
       <c r="B28" s="0" t="s">
         <v>3</v>
@@ -900,7 +900,7 @@
     </row>
     <row r="29" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>89</v>
+        <v>145</v>
       </c>
       <c r="B29" s="0" t="s">
         <v>3</v>
@@ -908,7 +908,7 @@
     </row>
     <row r="30" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>90</v>
+        <v>146</v>
       </c>
       <c r="B30" s="0" t="s">
         <v>3</v>
@@ -916,7 +916,7 @@
     </row>
     <row r="31" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>91</v>
+        <v>147</v>
       </c>
       <c r="B31" s="0" t="s">
         <v>3</v>
@@ -924,7 +924,7 @@
     </row>
     <row r="32" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>92</v>
+        <v>148</v>
       </c>
       <c r="B32" s="0" t="s">
         <v>3</v>
@@ -932,7 +932,7 @@
     </row>
     <row r="33" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>93</v>
+        <v>149</v>
       </c>
       <c r="B33" s="0" t="s">
         <v>3</v>
@@ -940,7 +940,7 @@
     </row>
     <row r="34" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>94</v>
+        <v>150</v>
       </c>
       <c r="B34" s="0" t="s">
         <v>3</v>
@@ -948,7 +948,7 @@
     </row>
     <row r="35" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>95</v>
+        <v>151</v>
       </c>
       <c r="B35" s="0" t="s">
         <v>3</v>
@@ -956,7 +956,7 @@
     </row>
     <row r="36" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>96</v>
+        <v>152</v>
       </c>
       <c r="B36" s="0" t="s">
         <v>3</v>
@@ -964,7 +964,7 @@
     </row>
     <row r="37" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>97</v>
+        <v>153</v>
       </c>
       <c r="B37" s="0" t="s">
         <v>3</v>
@@ -972,7 +972,7 @@
     </row>
     <row r="38" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>98</v>
+        <v>154</v>
       </c>
       <c r="B38" s="0" t="s">
         <v>3</v>
@@ -980,7 +980,7 @@
     </row>
     <row r="39" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>99</v>
+        <v>155</v>
       </c>
       <c r="B39" s="0" t="s">
         <v>3</v>
@@ -988,7 +988,7 @@
     </row>
     <row r="40" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>100</v>
+        <v>156</v>
       </c>
       <c r="B40" s="0" t="s">
         <v>3</v>
@@ -996,7 +996,7 @@
     </row>
     <row r="41" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>101</v>
+        <v>157</v>
       </c>
       <c r="B41" s="0" t="s">
         <v>3</v>
@@ -1004,7 +1004,7 @@
     </row>
     <row r="42" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>102</v>
+        <v>158</v>
       </c>
       <c r="B42" s="0" t="s">
         <v>3</v>
@@ -1012,7 +1012,7 @@
     </row>
     <row r="43" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>103</v>
+        <v>159</v>
       </c>
       <c r="B43" s="0" t="s">
         <v>3</v>
@@ -1020,7 +1020,7 @@
     </row>
     <row r="44" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>104</v>
+        <v>160</v>
       </c>
       <c r="B44" s="0" t="s">
         <v>3</v>
@@ -1028,7 +1028,7 @@
     </row>
     <row r="45" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>105</v>
+        <v>161</v>
       </c>
       <c r="B45" s="0" t="s">
         <v>3</v>
@@ -1036,7 +1036,7 @@
     </row>
     <row r="46" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>106</v>
+        <v>162</v>
       </c>
       <c r="B46" s="0" t="s">
         <v>3</v>
@@ -1044,7 +1044,7 @@
     </row>
     <row r="47" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>107</v>
+        <v>163</v>
       </c>
       <c r="B47" s="0" t="s">
         <v>3</v>
@@ -1052,7 +1052,7 @@
     </row>
     <row r="48" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>108</v>
+        <v>164</v>
       </c>
       <c r="B48" s="0" t="s">
         <v>3</v>
@@ -1060,7 +1060,7 @@
     </row>
     <row r="49" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>109</v>
+        <v>165</v>
       </c>
       <c r="B49" s="0" t="s">
         <v>3</v>
@@ -1068,7 +1068,7 @@
     </row>
     <row r="50" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>110</v>
+        <v>166</v>
       </c>
       <c r="B50" s="0" t="s">
         <v>3</v>
@@ -1076,7 +1076,7 @@
     </row>
     <row r="51" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>111</v>
+        <v>167</v>
       </c>
       <c r="B51" s="0" t="s">
         <v>3</v>
@@ -1084,7 +1084,7 @@
     </row>
     <row r="52" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>112</v>
+        <v>168</v>
       </c>
       <c r="B52" s="0" t="s">
         <v>3</v>
@@ -1092,7 +1092,7 @@
     </row>
     <row r="53" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>113</v>
+        <v>169</v>
       </c>
       <c r="B53" s="0" t="s">
         <v>3</v>
@@ -1100,7 +1100,7 @@
     </row>
     <row r="54" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>114</v>
+        <v>170</v>
       </c>
       <c r="B54" s="0" t="s">
         <v>3</v>
@@ -1108,7 +1108,7 @@
     </row>
     <row r="55" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>115</v>
+        <v>171</v>
       </c>
       <c r="B55" s="0" t="s">
         <v>3</v>
@@ -1116,7 +1116,7 @@
     </row>
     <row r="56" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>116</v>
+        <v>172</v>
       </c>
       <c r="B56" s="0" t="s">
         <v>3</v>
@@ -1124,7 +1124,7 @@
     </row>
     <row r="57" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>117</v>
+        <v>173</v>
       </c>
       <c r="B57" s="0" t="s">
         <v>3</v>
@@ -1132,7 +1132,7 @@
     </row>
     <row r="58" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>118</v>
+        <v>174</v>
       </c>
       <c r="B58" s="0" t="s">
         <v>3</v>
@@ -1140,7 +1140,7 @@
     </row>
     <row r="59" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>119</v>
+        <v>175</v>
       </c>
       <c r="B59" s="0" t="s">
         <v>3</v>
@@ -1148,457 +1148,9 @@
     </row>
     <row r="60" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>120</v>
+        <v>176</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="0" t="s">
-        <v>121</v>
-      </c>
-      <c r="B61" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="0" t="s">
-        <v>122</v>
-      </c>
-      <c r="B62" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="63" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="B63" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="64" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="0" t="s">
-        <v>124</v>
-      </c>
-      <c r="B64" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="65" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="0" t="s">
-        <v>125</v>
-      </c>
-      <c r="B65" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="66" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="0" t="s">
-        <v>126</v>
-      </c>
-      <c r="B66" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="67" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="0" t="s">
-        <v>127</v>
-      </c>
-      <c r="B67" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="68" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="B68" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="69" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="0" t="s">
-        <v>129</v>
-      </c>
-      <c r="B69" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="70" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="0" t="s">
-        <v>130</v>
-      </c>
-      <c r="B70" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="71" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="B71" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="72" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="B72" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="73" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="B73" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="74" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="0" t="s">
-        <v>134</v>
-      </c>
-      <c r="B74" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="75" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="0" t="s">
-        <v>135</v>
-      </c>
-      <c r="B75" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="76" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="0" t="s">
-        <v>136</v>
-      </c>
-      <c r="B76" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="77" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="0" t="s">
-        <v>137</v>
-      </c>
-      <c r="B77" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="78" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="0" t="s">
-        <v>138</v>
-      </c>
-      <c r="B78" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="79" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="0" t="s">
-        <v>139</v>
-      </c>
-      <c r="B79" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="80" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="0" t="s">
-        <v>140</v>
-      </c>
-      <c r="B80" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="0" t="s">
-        <v>141</v>
-      </c>
-      <c r="B81" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="0" t="s">
-        <v>142</v>
-      </c>
-      <c r="B82" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="83" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="B83" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="84" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="0" t="s">
-        <v>144</v>
-      </c>
-      <c r="B84" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="85" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="0" t="s">
-        <v>145</v>
-      </c>
-      <c r="B85" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="86" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="0" t="s">
-        <v>146</v>
-      </c>
-      <c r="B86" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="87" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="0" t="s">
-        <v>147</v>
-      </c>
-      <c r="B87" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="88" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="0" t="s">
-        <v>148</v>
-      </c>
-      <c r="B88" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="89" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="0" t="s">
-        <v>149</v>
-      </c>
-      <c r="B89" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="0" t="s">
-        <v>150</v>
-      </c>
-      <c r="B90" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="91" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="0" t="s">
-        <v>151</v>
-      </c>
-      <c r="B91" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="92" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="0" t="s">
-        <v>152</v>
-      </c>
-      <c r="B92" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="93" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="0" t="s">
-        <v>153</v>
-      </c>
-      <c r="B93" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="94" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="0" t="s">
-        <v>154</v>
-      </c>
-      <c r="B94" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="95" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="0" t="s">
-        <v>155</v>
-      </c>
-      <c r="B95" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="96" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="0" t="s">
-        <v>156</v>
-      </c>
-      <c r="B96" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="97" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="0" t="s">
-        <v>157</v>
-      </c>
-      <c r="B97" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="98" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="0" t="s">
-        <v>158</v>
-      </c>
-      <c r="B98" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="99" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="0" t="s">
-        <v>159</v>
-      </c>
-      <c r="B99" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="100" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="0" t="s">
-        <v>160</v>
-      </c>
-      <c r="B100" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="0" t="s">
-        <v>161</v>
-      </c>
-      <c r="B101" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="102" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="0" t="s">
-        <v>162</v>
-      </c>
-      <c r="B102" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="103" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="0" t="s">
-        <v>163</v>
-      </c>
-      <c r="B103" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="104" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="0" t="s">
-        <v>164</v>
-      </c>
-      <c r="B104" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="105" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="0" t="s">
-        <v>165</v>
-      </c>
-      <c r="B105" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="106" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="0" t="s">
-        <v>166</v>
-      </c>
-      <c r="B106" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="107" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="0" t="s">
-        <v>167</v>
-      </c>
-      <c r="B107" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="108" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="0" t="s">
-        <v>168</v>
-      </c>
-      <c r="B108" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="109" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="0" t="s">
-        <v>169</v>
-      </c>
-      <c r="B109" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="110" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="0" t="s">
-        <v>170</v>
-      </c>
-      <c r="B110" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="111" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="0" t="s">
-        <v>171</v>
-      </c>
-      <c r="B111" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="112" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="0" t="s">
-        <v>172</v>
-      </c>
-      <c r="B112" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="113" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="0" t="s">
-        <v>173</v>
-      </c>
-      <c r="B113" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="114" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="0" t="s">
-        <v>174</v>
-      </c>
-      <c r="B114" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="115" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="0" t="s">
-        <v>175</v>
-      </c>
-      <c r="B115" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="116" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="0" t="s">
-        <v>176</v>
-      </c>
-      <c r="B116" s="0" t="s">
         <v>3</v>
       </c>
     </row>

--- a/src/main/java/dataRepository/logindata.xlsx
+++ b/src/main/java/dataRepository/logindata.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="57">
   <si>
     <t xml:space="preserve">UserName</t>
   </si>
@@ -28,19 +28,10 @@
     <t xml:space="preserve">Password</t>
   </si>
   <si>
-    <t xml:space="preserve">adnewuser_139@mailinator.com</t>
+    <t xml:space="preserve">adnewuser_142@mailinator.com</t>
   </si>
   <si>
     <t xml:space="preserve">password</t>
-  </si>
-  <si>
-    <t xml:space="preserve">adnewuser_140@mailinator.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">adnewuser_141@mailinator.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">adnewuser_142@mailinator.com</t>
   </si>
   <si>
     <t xml:space="preserve">adnewuser_143@mailinator.com</t>
@@ -307,18 +298,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B58"/>
+  <dimension ref="A1:B55"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:B58"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="30.6428571428571"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.1224489795918"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="28.2142857142857"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="21.0612244897959"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="30.2397959183673"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="9.98979591836735"/>
+    <col collapsed="false" hidden="false" max="7" min="3" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="27.8061224489796"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="20.6530612244898"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -758,30 +751,6 @@
         <v>56</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="B56" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="B57" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="B58" s="0" t="s">
         <v>3</v>
       </c>
     </row>

--- a/src/main/java/dataRepository/logindata.xlsx
+++ b/src/main/java/dataRepository/logindata.xlsx
@@ -306,12 +306,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="30.2397959183673"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="9.98979591836735"/>
-    <col collapsed="false" hidden="false" max="7" min="3" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="27.8061224489796"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="20.6530612244898"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.50510204081633"/>
+    <col min="1" max="1" hidden="false" style="0" width="30.2397959183673" collapsed="true"/>
+    <col min="2" max="2" hidden="false" style="0" width="9.98979591836735" collapsed="true"/>
+    <col min="3" max="7" hidden="false" style="0" width="8.50510204081633" collapsed="true"/>
+    <col min="8" max="8" hidden="false" style="0" width="27.8061224489796" collapsed="true"/>
+    <col min="9" max="9" hidden="false" style="0" width="20.6530612244898" collapsed="true"/>
+    <col min="10" max="1025" hidden="false" style="0" width="8.50510204081633" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -322,435 +322,427 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B11" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B12" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B13" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B14" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B15" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B16" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B17" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B18" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B19" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B20" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B21" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B22" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B23" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B24" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B25" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B26" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B27" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B28" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B29" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B30" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B31" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B32" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B33" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B34" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B35" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B36" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B37" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B38" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B39" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B40" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B41" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B42" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B43" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B44" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B45" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B46" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B47" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B48" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B49" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B50" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B51" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B52" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B53" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="B55" s="0" t="s">
         <v>3</v>
       </c>
     </row>

--- a/src/main/java/dataRepository/logindata.xlsx
+++ b/src/main/java/dataRepository/logindata.xlsx
@@ -324,7 +324,7 @@
     </row>
     <row r="2" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>3</v>
@@ -332,7 +332,7 @@
     </row>
     <row r="3" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>3</v>
@@ -340,7 +340,7 @@
     </row>
     <row r="4" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>3</v>
@@ -348,7 +348,7 @@
     </row>
     <row r="5" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>3</v>
@@ -356,7 +356,7 @@
     </row>
     <row r="6" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>3</v>
@@ -364,7 +364,7 @@
     </row>
     <row r="7" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>3</v>
@@ -372,7 +372,7 @@
     </row>
     <row r="8" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>3</v>
@@ -380,7 +380,7 @@
     </row>
     <row r="9" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>3</v>
@@ -388,7 +388,7 @@
     </row>
     <row r="10" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>3</v>
@@ -396,7 +396,7 @@
     </row>
     <row r="11" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B11" s="0" t="s">
         <v>3</v>
@@ -404,7 +404,7 @@
     </row>
     <row r="12" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B12" s="0" t="s">
         <v>3</v>
@@ -412,7 +412,7 @@
     </row>
     <row r="13" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B13" s="0" t="s">
         <v>3</v>
@@ -420,7 +420,7 @@
     </row>
     <row r="14" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B14" s="0" t="s">
         <v>3</v>
@@ -428,7 +428,7 @@
     </row>
     <row r="15" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B15" s="0" t="s">
         <v>3</v>
@@ -436,7 +436,7 @@
     </row>
     <row r="16" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B16" s="0" t="s">
         <v>3</v>
@@ -444,7 +444,7 @@
     </row>
     <row r="17" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B17" s="0" t="s">
         <v>3</v>
@@ -452,7 +452,7 @@
     </row>
     <row r="18" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B18" s="0" t="s">
         <v>3</v>
@@ -460,7 +460,7 @@
     </row>
     <row r="19" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B19" s="0" t="s">
         <v>3</v>
@@ -468,7 +468,7 @@
     </row>
     <row r="20" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B20" s="0" t="s">
         <v>3</v>
@@ -476,7 +476,7 @@
     </row>
     <row r="21" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B21" s="0" t="s">
         <v>3</v>
@@ -484,7 +484,7 @@
     </row>
     <row r="22" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B22" s="0" t="s">
         <v>3</v>
@@ -492,7 +492,7 @@
     </row>
     <row r="23" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B23" s="0" t="s">
         <v>3</v>
@@ -500,7 +500,7 @@
     </row>
     <row r="24" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B24" s="0" t="s">
         <v>3</v>
@@ -508,7 +508,7 @@
     </row>
     <row r="25" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B25" s="0" t="s">
         <v>3</v>
@@ -516,7 +516,7 @@
     </row>
     <row r="26" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B26" s="0" t="s">
         <v>3</v>
@@ -524,7 +524,7 @@
     </row>
     <row r="27" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B27" s="0" t="s">
         <v>3</v>
@@ -532,7 +532,7 @@
     </row>
     <row r="28" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B28" s="0" t="s">
         <v>3</v>
@@ -540,7 +540,7 @@
     </row>
     <row r="29" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B29" s="0" t="s">
         <v>3</v>
@@ -548,7 +548,7 @@
     </row>
     <row r="30" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B30" s="0" t="s">
         <v>3</v>
@@ -556,7 +556,7 @@
     </row>
     <row r="31" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B31" s="0" t="s">
         <v>3</v>
@@ -564,7 +564,7 @@
     </row>
     <row r="32" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B32" s="0" t="s">
         <v>3</v>
@@ -572,7 +572,7 @@
     </row>
     <row r="33" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B33" s="0" t="s">
         <v>3</v>
@@ -580,7 +580,7 @@
     </row>
     <row r="34" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B34" s="0" t="s">
         <v>3</v>
@@ -588,7 +588,7 @@
     </row>
     <row r="35" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B35" s="0" t="s">
         <v>3</v>
@@ -596,7 +596,7 @@
     </row>
     <row r="36" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B36" s="0" t="s">
         <v>3</v>
@@ -604,7 +604,7 @@
     </row>
     <row r="37" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B37" s="0" t="s">
         <v>3</v>
@@ -612,7 +612,7 @@
     </row>
     <row r="38" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B38" s="0" t="s">
         <v>3</v>
@@ -620,7 +620,7 @@
     </row>
     <row r="39" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B39" s="0" t="s">
         <v>3</v>
@@ -628,7 +628,7 @@
     </row>
     <row r="40" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B40" s="0" t="s">
         <v>3</v>
@@ -636,7 +636,7 @@
     </row>
     <row r="41" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B41" s="0" t="s">
         <v>3</v>
@@ -644,7 +644,7 @@
     </row>
     <row r="42" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B42" s="0" t="s">
         <v>3</v>
@@ -652,7 +652,7 @@
     </row>
     <row r="43" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B43" s="0" t="s">
         <v>3</v>
@@ -660,7 +660,7 @@
     </row>
     <row r="44" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B44" s="0" t="s">
         <v>3</v>
@@ -668,7 +668,7 @@
     </row>
     <row r="45" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B45" s="0" t="s">
         <v>3</v>
@@ -676,7 +676,7 @@
     </row>
     <row r="46" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B46" s="0" t="s">
         <v>3</v>
@@ -684,7 +684,7 @@
     </row>
     <row r="47" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B47" s="0" t="s">
         <v>3</v>
@@ -692,7 +692,7 @@
     </row>
     <row r="48" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B48" s="0" t="s">
         <v>3</v>
@@ -700,7 +700,7 @@
     </row>
     <row r="49" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B49" s="0" t="s">
         <v>3</v>
@@ -708,7 +708,7 @@
     </row>
     <row r="50" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B50" s="0" t="s">
         <v>3</v>
@@ -716,7 +716,7 @@
     </row>
     <row r="51" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B51" s="0" t="s">
         <v>3</v>
@@ -724,25 +724,9 @@
     </row>
     <row r="52" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="B53" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="B54" s="0" t="s">
         <v>3</v>
       </c>
     </row>

--- a/src/main/java/dataRepository/logindata.xlsx
+++ b/src/main/java/dataRepository/logindata.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="39">
   <si>
     <t xml:space="preserve">UserName</t>
   </si>
@@ -28,13 +28,10 @@
     <t xml:space="preserve">Password</t>
   </si>
   <si>
-    <t xml:space="preserve">adnewuser_153@mailinator.com</t>
+    <t xml:space="preserve">adnewuser_154@mailinator.com</t>
   </si>
   <si>
     <t xml:space="preserve">password</t>
-  </si>
-  <si>
-    <t xml:space="preserve">adnewuser_154@mailinator.com</t>
   </si>
   <si>
     <t xml:space="preserve">adnewuser_155@mailinator.com</t>
@@ -247,20 +244,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B38"/>
+  <dimension ref="A1:B37"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A39" activeCellId="0" sqref="A39"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G16" activeCellId="0" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="29.8316326530612"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="9.85204081632653"/>
-    <col collapsed="false" hidden="false" max="7" min="3" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="27.5408163265306"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="20.3826530612245"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="29.4285714285714"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="9.71938775510204"/>
+    <col collapsed="false" hidden="false" max="7" min="3" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="27.2704081632653"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="20.1122448979592"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -556,14 +553,6 @@
         <v>38</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="B38" s="0" t="s">
         <v>3</v>
       </c>
     </row>

--- a/src/main/java/dataRepository/logindata.xlsx
+++ b/src/main/java/dataRepository/logindata.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="83">
   <si>
     <t xml:space="preserve">UserName</t>
   </si>
@@ -28,115 +28,247 @@
     <t xml:space="preserve">Password</t>
   </si>
   <si>
-    <t xml:space="preserve">adnewuser_154@mailinator.com</t>
+    <t xml:space="preserve">Newuserstaging_1@mailinator.com</t>
   </si>
   <si>
     <t xml:space="preserve">password</t>
   </si>
   <si>
-    <t xml:space="preserve">adnewuser_155@mailinator.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">adnewuser_156@mailinator.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">adnewuser_157@mailinator.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">adnewuser_158@mailinator.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">adnewuser_159@mailinator.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">adnewuser_160@mailinator.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">adnewuser_161@mailinator.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">adnewuser_162@mailinator.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">adnewuser_163@mailinator.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">adnewuser_164@mailinator.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">adnewuser_165@mailinator.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">adnewuser_166@mailinator.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">adnewuser_167@mailinator.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">adnewuser_168@mailinator.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">adnewuser_169@mailinator.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">adnewuser_170@mailinator.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">adnewuser_171@mailinator.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">adnewuser_172@mailinator.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">adnewuser_173@mailinator.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">adnewuser_174@mailinator.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">adnewuser_175@mailinator.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">adnewuser_176@mailinator.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">adnewuser_177@mailinator.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">adnewuser_178@mailinator.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">adnewuser_179@mailinator.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">adnewuser_180@mailinator.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">adnewuser_181@mailinator.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">adnewuser_182@mailinator.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">adnewuser_183@mailinator.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">adnewuser_184@mailinator.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">adnewuser_185@mailinator.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">adnewuser_186@mailinator.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">adnewuser_187@mailinator.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">adnewuser_188@mailinator.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">adnewuser_189@mailinator.com</t>
+    <t xml:space="preserve">Newuserstaging_2@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Newuserstaging_3@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Newuserstaging_4@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Newuserstaging_5@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Newuserstaging_6@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Newuserstaging_7@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Newuserstaging_8@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Newuserstaging_9@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Newuserstaging_10@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Newuserstaging_11@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Newuserstaging_12@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Newuserstaging_13@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Newuserstaging_14@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Newuserstaging_15@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Newuserstaging_16@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Newuserstaging_17@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Newuserstaging_18@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Newuserstaging_19@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Newuserstaging_20@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Newuserstaging_21@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Newuserstaging_22@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Newuserstaging_23@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Newuserstaging_24@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Newuserstaging_25@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Newuserstaging_26@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Newuserstaging_27@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Newuserstaging_28@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Newuserstaging_29@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Newuserstaging_30@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Newuserstaging_31@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Newuserstaging_32@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Newuserstaging_33@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Newuserstaging_34@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Newuserstaging_35@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Newuserstaging_36@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Newuserstaging_37@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Newuserstaging_38@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Newuserstaging_39@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Newuserstaging_40@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Newuserstaging_41@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Newuserstaging_42@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Newuserstaging_43@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Newuserstaging_44@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Newuserstaging_45@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Newuserstaging_46@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Newuserstaging_47@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Newuserstaging_48@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Newuserstaging_49@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Newuserstaging_50@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Newuserstaging_51@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Newuserstaging_52@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Newuserstaging_53@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Newuserstaging_54@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Newuserstaging_55@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Newuserstaging_56@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Newuserstaging_57@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Newuserstaging_58@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Newuserstaging_59@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Newuserstaging_60@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Newuserstaging_61@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Newuserstaging_62@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Newuserstaging_63@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Newuserstaging_64@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Newuserstaging_65@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Newuserstaging_66@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Newuserstaging_67@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Newuserstaging_68@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Newuserstaging_69@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Newuserstaging_70@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Newuserstaging_71@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Newuserstaging_72@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Newuserstaging_73@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Newuserstaging_74@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Newuserstaging_75@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Newuserstaging_76@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Newuserstaging_77@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Newuserstaging_78@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Newuserstaging_79@mailinator.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Newuserstaging_80@mailinator.com</t>
   </si>
 </sst>
 </file>
@@ -218,12 +350,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -244,20 +380,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B37"/>
+  <dimension ref="A1:B81"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G16" activeCellId="0" sqref="G16"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B63" activeCellId="0" sqref="B63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="29.4285714285714"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="9.71938775510204"/>
-    <col collapsed="false" hidden="false" max="7" min="3" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="27.2704081632653"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="20.1122448979592"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="35.8724489795918"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="9.31632653061224"/>
+    <col collapsed="false" hidden="false" max="7" min="3" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="26.0510204081633"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="19.3061224489796"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -269,7 +405,7 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
@@ -277,7 +413,7 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="0" t="s">
@@ -285,7 +421,7 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="0" t="s">
@@ -293,7 +429,7 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="0" t="s">
@@ -553,6 +689,358 @@
         <v>38</v>
       </c>
       <c r="B37" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B38" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="B39" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="B40" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="B41" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="B42" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="B43" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="B44" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="B45" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="B46" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="B47" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="B48" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="B49" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="B50" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="B51" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="B52" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="B53" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="B54" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="B55" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="B56" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="B57" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="B58" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="B59" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="B60" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="B61" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="B62" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="B63" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="B64" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="B65" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="B66" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="B67" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="B68" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="B69" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="B70" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="B71" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="B72" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="B73" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="B74" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="B75" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="B76" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="B77" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="B78" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="B79" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="B80" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="B81" s="0" t="s">
         <v>3</v>
       </c>
     </row>

--- a/src/main/java/dataRepository/logindata.xlsx
+++ b/src/main/java/dataRepository/logindata.xlsx
@@ -388,12 +388,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="35.8724489795918"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="9.31632653061224"/>
-    <col collapsed="false" hidden="false" max="7" min="3" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="26.0510204081633"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="19.3061224489796"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.36734693877551"/>
+    <col min="1" max="1" hidden="false" style="0" width="35.8724489795918" collapsed="true"/>
+    <col min="2" max="2" hidden="false" style="0" width="9.31632653061224" collapsed="true"/>
+    <col min="3" max="7" hidden="false" style="0" width="8.36734693877551" collapsed="true"/>
+    <col min="8" max="8" hidden="false" style="0" width="26.0510204081633" collapsed="true"/>
+    <col min="9" max="9" hidden="false" style="0" width="19.3061224489796" collapsed="true"/>
+    <col min="10" max="1025" hidden="false" style="0" width="8.36734693877551" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -404,643 +404,619 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
-        <v>4</v>
+    <row r="3" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>7</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
-        <v>5</v>
+    <row r="4" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>8</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
-        <v>6</v>
+    <row r="5" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>9</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B11" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B13" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B14" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B15" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B16" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B17" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B18" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B19" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B20" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B21" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B22" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B23" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B24" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B25" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B26" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B27" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B28" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B29" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B30" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B31" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B32" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B33" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B34" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B35" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B36" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B37" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B38" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B39" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B40" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B41" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B42" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B43" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B44" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B45" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B46" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B47" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B48" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B49" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B50" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B51" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B52" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B53" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B54" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B55" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B56" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B57" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B58" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B59" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B60" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B61" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B62" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B63" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B64" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B65" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B66" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B67" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B68" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B69" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B70" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B71" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B72" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B73" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B74" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B75" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B76" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B77" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="B79" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="B80" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="B81" s="0" t="s">
         <v>3</v>
       </c>
     </row>

--- a/src/main/java/dataRepository/logindata.xlsx
+++ b/src/main/java/dataRepository/logindata.xlsx
@@ -405,8 +405,8 @@
       </c>
     </row>
     <row r="2" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
-        <v>6</v>
+      <c r="A2" s="0" t="s">
+        <v>9</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>3</v>
@@ -414,7 +414,7 @@
     </row>
     <row r="3" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>3</v>
@@ -422,7 +422,7 @@
     </row>
     <row r="4" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>3</v>
@@ -430,7 +430,7 @@
     </row>
     <row r="5" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>3</v>
@@ -438,7 +438,7 @@
     </row>
     <row r="6" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>3</v>
@@ -446,7 +446,7 @@
     </row>
     <row r="7" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>3</v>
@@ -454,7 +454,7 @@
     </row>
     <row r="8" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>3</v>
@@ -462,7 +462,7 @@
     </row>
     <row r="9" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>3</v>
@@ -470,7 +470,7 @@
     </row>
     <row r="10" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>3</v>
@@ -478,7 +478,7 @@
     </row>
     <row r="11" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B11" s="0" t="s">
         <v>3</v>
@@ -486,7 +486,7 @@
     </row>
     <row r="12" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B12" s="0" t="s">
         <v>3</v>
@@ -494,7 +494,7 @@
     </row>
     <row r="13" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B13" s="0" t="s">
         <v>3</v>
@@ -502,7 +502,7 @@
     </row>
     <row r="14" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B14" s="0" t="s">
         <v>3</v>
@@ -510,7 +510,7 @@
     </row>
     <row r="15" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B15" s="0" t="s">
         <v>3</v>
@@ -518,7 +518,7 @@
     </row>
     <row r="16" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B16" s="0" t="s">
         <v>3</v>
@@ -526,7 +526,7 @@
     </row>
     <row r="17" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B17" s="0" t="s">
         <v>3</v>
@@ -534,7 +534,7 @@
     </row>
     <row r="18" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B18" s="0" t="s">
         <v>3</v>
@@ -542,7 +542,7 @@
     </row>
     <row r="19" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B19" s="0" t="s">
         <v>3</v>
@@ -550,7 +550,7 @@
     </row>
     <row r="20" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B20" s="0" t="s">
         <v>3</v>
@@ -558,7 +558,7 @@
     </row>
     <row r="21" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B21" s="0" t="s">
         <v>3</v>
@@ -566,7 +566,7 @@
     </row>
     <row r="22" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B22" s="0" t="s">
         <v>3</v>
@@ -574,7 +574,7 @@
     </row>
     <row r="23" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B23" s="0" t="s">
         <v>3</v>
@@ -582,7 +582,7 @@
     </row>
     <row r="24" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B24" s="0" t="s">
         <v>3</v>
@@ -590,7 +590,7 @@
     </row>
     <row r="25" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B25" s="0" t="s">
         <v>3</v>
@@ -598,7 +598,7 @@
     </row>
     <row r="26" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B26" s="0" t="s">
         <v>3</v>
@@ -606,7 +606,7 @@
     </row>
     <row r="27" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B27" s="0" t="s">
         <v>3</v>
@@ -614,7 +614,7 @@
     </row>
     <row r="28" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B28" s="0" t="s">
         <v>3</v>
@@ -622,7 +622,7 @@
     </row>
     <row r="29" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B29" s="0" t="s">
         <v>3</v>
@@ -630,7 +630,7 @@
     </row>
     <row r="30" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B30" s="0" t="s">
         <v>3</v>
@@ -638,7 +638,7 @@
     </row>
     <row r="31" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B31" s="0" t="s">
         <v>3</v>
@@ -646,7 +646,7 @@
     </row>
     <row r="32" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B32" s="0" t="s">
         <v>3</v>
@@ -654,7 +654,7 @@
     </row>
     <row r="33" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B33" s="0" t="s">
         <v>3</v>
@@ -662,7 +662,7 @@
     </row>
     <row r="34" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B34" s="0" t="s">
         <v>3</v>
@@ -670,7 +670,7 @@
     </row>
     <row r="35" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B35" s="0" t="s">
         <v>3</v>
@@ -678,7 +678,7 @@
     </row>
     <row r="36" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B36" s="0" t="s">
         <v>3</v>
@@ -686,7 +686,7 @@
     </row>
     <row r="37" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B37" s="0" t="s">
         <v>3</v>
@@ -694,7 +694,7 @@
     </row>
     <row r="38" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B38" s="0" t="s">
         <v>3</v>
@@ -702,7 +702,7 @@
     </row>
     <row r="39" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B39" s="0" t="s">
         <v>3</v>
@@ -710,7 +710,7 @@
     </row>
     <row r="40" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B40" s="0" t="s">
         <v>3</v>
@@ -718,7 +718,7 @@
     </row>
     <row r="41" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B41" s="0" t="s">
         <v>3</v>
@@ -726,7 +726,7 @@
     </row>
     <row r="42" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B42" s="0" t="s">
         <v>3</v>
@@ -734,7 +734,7 @@
     </row>
     <row r="43" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B43" s="0" t="s">
         <v>3</v>
@@ -742,7 +742,7 @@
     </row>
     <row r="44" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B44" s="0" t="s">
         <v>3</v>
@@ -750,7 +750,7 @@
     </row>
     <row r="45" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B45" s="0" t="s">
         <v>3</v>
@@ -758,7 +758,7 @@
     </row>
     <row r="46" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B46" s="0" t="s">
         <v>3</v>
@@ -766,7 +766,7 @@
     </row>
     <row r="47" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B47" s="0" t="s">
         <v>3</v>
@@ -774,7 +774,7 @@
     </row>
     <row r="48" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B48" s="0" t="s">
         <v>3</v>
@@ -782,7 +782,7 @@
     </row>
     <row r="49" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B49" s="0" t="s">
         <v>3</v>
@@ -790,7 +790,7 @@
     </row>
     <row r="50" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B50" s="0" t="s">
         <v>3</v>
@@ -798,7 +798,7 @@
     </row>
     <row r="51" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B51" s="0" t="s">
         <v>3</v>
@@ -806,7 +806,7 @@
     </row>
     <row r="52" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B52" s="0" t="s">
         <v>3</v>
@@ -814,7 +814,7 @@
     </row>
     <row r="53" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B53" s="0" t="s">
         <v>3</v>
@@ -822,7 +822,7 @@
     </row>
     <row r="54" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B54" s="0" t="s">
         <v>3</v>
@@ -830,7 +830,7 @@
     </row>
     <row r="55" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B55" s="0" t="s">
         <v>3</v>
@@ -838,7 +838,7 @@
     </row>
     <row r="56" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B56" s="0" t="s">
         <v>3</v>
@@ -846,7 +846,7 @@
     </row>
     <row r="57" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B57" s="0" t="s">
         <v>3</v>
@@ -854,7 +854,7 @@
     </row>
     <row r="58" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B58" s="0" t="s">
         <v>3</v>
@@ -862,7 +862,7 @@
     </row>
     <row r="59" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B59" s="0" t="s">
         <v>3</v>
@@ -870,7 +870,7 @@
     </row>
     <row r="60" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B60" s="0" t="s">
         <v>3</v>
@@ -878,7 +878,7 @@
     </row>
     <row r="61" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B61" s="0" t="s">
         <v>3</v>
@@ -886,7 +886,7 @@
     </row>
     <row r="62" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B62" s="0" t="s">
         <v>3</v>
@@ -894,7 +894,7 @@
     </row>
     <row r="63" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B63" s="0" t="s">
         <v>3</v>
@@ -902,7 +902,7 @@
     </row>
     <row r="64" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B64" s="0" t="s">
         <v>3</v>
@@ -910,7 +910,7 @@
     </row>
     <row r="65" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B65" s="0" t="s">
         <v>3</v>
@@ -918,7 +918,7 @@
     </row>
     <row r="66" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B66" s="0" t="s">
         <v>3</v>
@@ -926,7 +926,7 @@
     </row>
     <row r="67" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B67" s="0" t="s">
         <v>3</v>
@@ -934,7 +934,7 @@
     </row>
     <row r="68" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B68" s="0" t="s">
         <v>3</v>
@@ -942,7 +942,7 @@
     </row>
     <row r="69" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B69" s="0" t="s">
         <v>3</v>
@@ -950,7 +950,7 @@
     </row>
     <row r="70" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B70" s="0" t="s">
         <v>3</v>
@@ -958,7 +958,7 @@
     </row>
     <row r="71" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B71" s="0" t="s">
         <v>3</v>
@@ -966,7 +966,7 @@
     </row>
     <row r="72" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B72" s="0" t="s">
         <v>3</v>
@@ -974,7 +974,7 @@
     </row>
     <row r="73" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B73" s="0" t="s">
         <v>3</v>
@@ -982,7 +982,7 @@
     </row>
     <row r="74" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B74" s="0" t="s">
         <v>3</v>
@@ -990,33 +990,9 @@
     </row>
     <row r="75" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="76" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="B76" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="77" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="B77" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="78" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="B78" s="0" t="s">
         <v>3</v>
       </c>
     </row>

--- a/src/main/java/dataRepository/logindata.xlsx
+++ b/src/main/java/dataRepository/logindata.xlsx
@@ -363,12 +363,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="35.3673469387755"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="9.17857142857143"/>
-    <col collapsed="false" hidden="false" max="7" min="3" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="25.6479591836735"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="19.0357142857143"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.23469387755102"/>
+    <col min="1" max="1" hidden="false" style="0" width="35.3673469387755" collapsed="true"/>
+    <col min="2" max="2" hidden="false" style="0" width="9.17857142857143" collapsed="true"/>
+    <col min="3" max="7" hidden="false" style="0" width="8.23469387755102" collapsed="true"/>
+    <col min="8" max="8" hidden="false" style="0" width="25.6479591836735" collapsed="true"/>
+    <col min="9" max="9" hidden="false" style="0" width="19.0357142857143" collapsed="true"/>
+    <col min="10" max="1025" hidden="false" style="0" width="8.23469387755102" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -379,587 +379,531 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B11" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="B12" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="B13" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B14" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="B15" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="B16" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="B17" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B18" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="B19" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B20" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="B21" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B22" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="B23" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="B24" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="B25" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="B26" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="B27" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="B28" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="B29" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="B30" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="B31" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="B32" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="B33" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="B34" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="B35" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="B36" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="B37" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="B38" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="B39" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="B40" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="B41" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="B42" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="B43" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="B44" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="B45" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="B46" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="B47" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="B48" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="B49" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="B50" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="B51" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="B52" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="B53" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="B54" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="B55" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="B56" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="B57" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="B58" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="B59" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="B60" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="B61" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="B62" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="B63" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="B64" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="B65" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="B66" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="B68" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="B69" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="B70" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="B71" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="B72" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="B73" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="B74" s="0" t="s">
         <v>3</v>
       </c>
     </row>

--- a/src/main/java/dataRepository/logindata.xlsx
+++ b/src/main/java/dataRepository/logindata.xlsx
@@ -381,7 +381,7 @@
     </row>
     <row r="2" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>3</v>
@@ -389,7 +389,7 @@
     </row>
     <row r="3" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>3</v>
@@ -397,7 +397,7 @@
     </row>
     <row r="4" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>3</v>
@@ -405,7 +405,7 @@
     </row>
     <row r="5" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>3</v>
@@ -413,7 +413,7 @@
     </row>
     <row r="6" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>3</v>
@@ -421,7 +421,7 @@
     </row>
     <row r="7" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>3</v>
@@ -429,7 +429,7 @@
     </row>
     <row r="8" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>3</v>
@@ -437,7 +437,7 @@
     </row>
     <row r="9" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>3</v>
@@ -445,7 +445,7 @@
     </row>
     <row r="10" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>3</v>
@@ -453,7 +453,7 @@
     </row>
     <row r="11" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B11" s="0" t="s">
         <v>3</v>
@@ -461,7 +461,7 @@
     </row>
     <row r="12" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B12" s="0" t="s">
         <v>3</v>
@@ -469,7 +469,7 @@
     </row>
     <row r="13" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B13" s="0" t="s">
         <v>3</v>
@@ -477,7 +477,7 @@
     </row>
     <row r="14" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B14" s="0" t="s">
         <v>3</v>
@@ -485,7 +485,7 @@
     </row>
     <row r="15" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B15" s="0" t="s">
         <v>3</v>
@@ -493,7 +493,7 @@
     </row>
     <row r="16" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B16" s="0" t="s">
         <v>3</v>
@@ -501,7 +501,7 @@
     </row>
     <row r="17" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B17" s="0" t="s">
         <v>3</v>
@@ -509,7 +509,7 @@
     </row>
     <row r="18" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B18" s="0" t="s">
         <v>3</v>
@@ -517,7 +517,7 @@
     </row>
     <row r="19" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B19" s="0" t="s">
         <v>3</v>
@@ -525,7 +525,7 @@
     </row>
     <row r="20" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B20" s="0" t="s">
         <v>3</v>
@@ -533,7 +533,7 @@
     </row>
     <row r="21" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B21" s="0" t="s">
         <v>3</v>
@@ -541,7 +541,7 @@
     </row>
     <row r="22" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B22" s="0" t="s">
         <v>3</v>
@@ -549,7 +549,7 @@
     </row>
     <row r="23" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B23" s="0" t="s">
         <v>3</v>
@@ -557,7 +557,7 @@
     </row>
     <row r="24" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B24" s="0" t="s">
         <v>3</v>
@@ -565,7 +565,7 @@
     </row>
     <row r="25" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B25" s="0" t="s">
         <v>3</v>
@@ -573,7 +573,7 @@
     </row>
     <row r="26" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B26" s="0" t="s">
         <v>3</v>
@@ -581,7 +581,7 @@
     </row>
     <row r="27" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B27" s="0" t="s">
         <v>3</v>
@@ -589,7 +589,7 @@
     </row>
     <row r="28" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B28" s="0" t="s">
         <v>3</v>
@@ -597,7 +597,7 @@
     </row>
     <row r="29" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B29" s="0" t="s">
         <v>3</v>
@@ -605,7 +605,7 @@
     </row>
     <row r="30" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B30" s="0" t="s">
         <v>3</v>
@@ -613,7 +613,7 @@
     </row>
     <row r="31" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B31" s="0" t="s">
         <v>3</v>
@@ -621,7 +621,7 @@
     </row>
     <row r="32" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B32" s="0" t="s">
         <v>3</v>
@@ -629,7 +629,7 @@
     </row>
     <row r="33" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B33" s="0" t="s">
         <v>3</v>
@@ -637,7 +637,7 @@
     </row>
     <row r="34" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B34" s="0" t="s">
         <v>3</v>
@@ -645,7 +645,7 @@
     </row>
     <row r="35" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B35" s="0" t="s">
         <v>3</v>
@@ -653,7 +653,7 @@
     </row>
     <row r="36" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B36" s="0" t="s">
         <v>3</v>
@@ -661,7 +661,7 @@
     </row>
     <row r="37" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B37" s="0" t="s">
         <v>3</v>
@@ -669,7 +669,7 @@
     </row>
     <row r="38" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B38" s="0" t="s">
         <v>3</v>
@@ -677,7 +677,7 @@
     </row>
     <row r="39" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B39" s="0" t="s">
         <v>3</v>
@@ -685,7 +685,7 @@
     </row>
     <row r="40" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B40" s="0" t="s">
         <v>3</v>
@@ -693,7 +693,7 @@
     </row>
     <row r="41" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B41" s="0" t="s">
         <v>3</v>
@@ -701,7 +701,7 @@
     </row>
     <row r="42" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B42" s="0" t="s">
         <v>3</v>
@@ -709,7 +709,7 @@
     </row>
     <row r="43" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B43" s="0" t="s">
         <v>3</v>
@@ -717,7 +717,7 @@
     </row>
     <row r="44" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B44" s="0" t="s">
         <v>3</v>
@@ -725,7 +725,7 @@
     </row>
     <row r="45" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B45" s="0" t="s">
         <v>3</v>
@@ -733,7 +733,7 @@
     </row>
     <row r="46" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B46" s="0" t="s">
         <v>3</v>
@@ -741,7 +741,7 @@
     </row>
     <row r="47" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B47" s="0" t="s">
         <v>3</v>
@@ -749,7 +749,7 @@
     </row>
     <row r="48" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B48" s="0" t="s">
         <v>3</v>
@@ -757,7 +757,7 @@
     </row>
     <row r="49" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B49" s="0" t="s">
         <v>3</v>
@@ -765,7 +765,7 @@
     </row>
     <row r="50" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B50" s="0" t="s">
         <v>3</v>
@@ -773,7 +773,7 @@
     </row>
     <row r="51" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B51" s="0" t="s">
         <v>3</v>
@@ -781,7 +781,7 @@
     </row>
     <row r="52" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B52" s="0" t="s">
         <v>3</v>
@@ -789,7 +789,7 @@
     </row>
     <row r="53" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B53" s="0" t="s">
         <v>3</v>
@@ -797,7 +797,7 @@
     </row>
     <row r="54" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B54" s="0" t="s">
         <v>3</v>
@@ -805,7 +805,7 @@
     </row>
     <row r="55" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B55" s="0" t="s">
         <v>3</v>
@@ -813,7 +813,7 @@
     </row>
     <row r="56" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B56" s="0" t="s">
         <v>3</v>
@@ -821,7 +821,7 @@
     </row>
     <row r="57" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B57" s="0" t="s">
         <v>3</v>
@@ -829,7 +829,7 @@
     </row>
     <row r="58" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B58" s="0" t="s">
         <v>3</v>
@@ -837,7 +837,7 @@
     </row>
     <row r="59" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B59" s="0" t="s">
         <v>3</v>
@@ -845,7 +845,7 @@
     </row>
     <row r="60" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B60" s="0" t="s">
         <v>3</v>
@@ -853,7 +853,7 @@
     </row>
     <row r="61" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B61" s="0" t="s">
         <v>3</v>
@@ -861,7 +861,7 @@
     </row>
     <row r="62" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B62" s="0" t="s">
         <v>3</v>
@@ -869,7 +869,7 @@
     </row>
     <row r="63" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B63" s="0" t="s">
         <v>3</v>
@@ -877,7 +877,7 @@
     </row>
     <row r="64" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B64" s="0" t="s">
         <v>3</v>
@@ -885,25 +885,9 @@
     </row>
     <row r="65" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="66" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="B66" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="67" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="B67" s="0" t="s">
         <v>3</v>
       </c>
     </row>

--- a/src/main/java/dataRepository/logindata.xlsx
+++ b/src/main/java/dataRepository/logindata.xlsx
@@ -381,7 +381,7 @@
     </row>
     <row r="2" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>3</v>
@@ -389,7 +389,7 @@
     </row>
     <row r="3" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>3</v>
@@ -397,7 +397,7 @@
     </row>
     <row r="4" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>3</v>
@@ -405,7 +405,7 @@
     </row>
     <row r="5" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>3</v>
@@ -413,7 +413,7 @@
     </row>
     <row r="6" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>3</v>
@@ -421,7 +421,7 @@
     </row>
     <row r="7" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>3</v>
@@ -429,7 +429,7 @@
     </row>
     <row r="8" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>3</v>
@@ -437,7 +437,7 @@
     </row>
     <row r="9" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>3</v>
@@ -445,7 +445,7 @@
     </row>
     <row r="10" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>3</v>
@@ -453,7 +453,7 @@
     </row>
     <row r="11" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B11" s="0" t="s">
         <v>3</v>
@@ -461,7 +461,7 @@
     </row>
     <row r="12" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B12" s="0" t="s">
         <v>3</v>
@@ -469,7 +469,7 @@
     </row>
     <row r="13" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B13" s="0" t="s">
         <v>3</v>
@@ -477,7 +477,7 @@
     </row>
     <row r="14" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B14" s="0" t="s">
         <v>3</v>
@@ -485,7 +485,7 @@
     </row>
     <row r="15" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B15" s="0" t="s">
         <v>3</v>
@@ -493,7 +493,7 @@
     </row>
     <row r="16" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B16" s="0" t="s">
         <v>3</v>
@@ -501,7 +501,7 @@
     </row>
     <row r="17" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B17" s="0" t="s">
         <v>3</v>
@@ -509,7 +509,7 @@
     </row>
     <row r="18" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B18" s="0" t="s">
         <v>3</v>
@@ -517,7 +517,7 @@
     </row>
     <row r="19" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B19" s="0" t="s">
         <v>3</v>
@@ -525,7 +525,7 @@
     </row>
     <row r="20" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B20" s="0" t="s">
         <v>3</v>
@@ -533,7 +533,7 @@
     </row>
     <row r="21" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B21" s="0" t="s">
         <v>3</v>
@@ -541,7 +541,7 @@
     </row>
     <row r="22" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B22" s="0" t="s">
         <v>3</v>
@@ -549,7 +549,7 @@
     </row>
     <row r="23" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B23" s="0" t="s">
         <v>3</v>
@@ -557,7 +557,7 @@
     </row>
     <row r="24" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B24" s="0" t="s">
         <v>3</v>
@@ -565,7 +565,7 @@
     </row>
     <row r="25" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B25" s="0" t="s">
         <v>3</v>
@@ -573,7 +573,7 @@
     </row>
     <row r="26" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B26" s="0" t="s">
         <v>3</v>
@@ -581,7 +581,7 @@
     </row>
     <row r="27" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B27" s="0" t="s">
         <v>3</v>
@@ -589,7 +589,7 @@
     </row>
     <row r="28" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B28" s="0" t="s">
         <v>3</v>
@@ -597,7 +597,7 @@
     </row>
     <row r="29" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B29" s="0" t="s">
         <v>3</v>
@@ -605,7 +605,7 @@
     </row>
     <row r="30" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B30" s="0" t="s">
         <v>3</v>
@@ -613,7 +613,7 @@
     </row>
     <row r="31" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B31" s="0" t="s">
         <v>3</v>
@@ -621,7 +621,7 @@
     </row>
     <row r="32" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B32" s="0" t="s">
         <v>3</v>
@@ -629,7 +629,7 @@
     </row>
     <row r="33" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B33" s="0" t="s">
         <v>3</v>
@@ -637,7 +637,7 @@
     </row>
     <row r="34" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B34" s="0" t="s">
         <v>3</v>
@@ -645,7 +645,7 @@
     </row>
     <row r="35" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B35" s="0" t="s">
         <v>3</v>
@@ -653,7 +653,7 @@
     </row>
     <row r="36" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B36" s="0" t="s">
         <v>3</v>
@@ -661,7 +661,7 @@
     </row>
     <row r="37" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B37" s="0" t="s">
         <v>3</v>
@@ -669,7 +669,7 @@
     </row>
     <row r="38" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B38" s="0" t="s">
         <v>3</v>
@@ -677,7 +677,7 @@
     </row>
     <row r="39" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B39" s="0" t="s">
         <v>3</v>
@@ -685,7 +685,7 @@
     </row>
     <row r="40" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B40" s="0" t="s">
         <v>3</v>
@@ -693,7 +693,7 @@
     </row>
     <row r="41" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B41" s="0" t="s">
         <v>3</v>
@@ -701,7 +701,7 @@
     </row>
     <row r="42" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B42" s="0" t="s">
         <v>3</v>
@@ -709,7 +709,7 @@
     </row>
     <row r="43" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B43" s="0" t="s">
         <v>3</v>
@@ -717,7 +717,7 @@
     </row>
     <row r="44" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B44" s="0" t="s">
         <v>3</v>
@@ -725,7 +725,7 @@
     </row>
     <row r="45" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B45" s="0" t="s">
         <v>3</v>
@@ -733,7 +733,7 @@
     </row>
     <row r="46" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B46" s="0" t="s">
         <v>3</v>
@@ -741,7 +741,7 @@
     </row>
     <row r="47" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B47" s="0" t="s">
         <v>3</v>
@@ -749,7 +749,7 @@
     </row>
     <row r="48" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B48" s="0" t="s">
         <v>3</v>
@@ -757,7 +757,7 @@
     </row>
     <row r="49" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B49" s="0" t="s">
         <v>3</v>
@@ -765,7 +765,7 @@
     </row>
     <row r="50" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B50" s="0" t="s">
         <v>3</v>
@@ -773,7 +773,7 @@
     </row>
     <row r="51" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B51" s="0" t="s">
         <v>3</v>
@@ -781,7 +781,7 @@
     </row>
     <row r="52" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B52" s="0" t="s">
         <v>3</v>
@@ -789,7 +789,7 @@
     </row>
     <row r="53" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B53" s="0" t="s">
         <v>3</v>
@@ -797,7 +797,7 @@
     </row>
     <row r="54" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B54" s="0" t="s">
         <v>3</v>
@@ -805,7 +805,7 @@
     </row>
     <row r="55" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B55" s="0" t="s">
         <v>3</v>
@@ -813,7 +813,7 @@
     </row>
     <row r="56" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B56" s="0" t="s">
         <v>3</v>
@@ -821,7 +821,7 @@
     </row>
     <row r="57" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B57" s="0" t="s">
         <v>3</v>
@@ -829,7 +829,7 @@
     </row>
     <row r="58" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B58" s="0" t="s">
         <v>3</v>
@@ -837,7 +837,7 @@
     </row>
     <row r="59" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B59" s="0" t="s">
         <v>3</v>
@@ -845,7 +845,7 @@
     </row>
     <row r="60" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B60" s="0" t="s">
         <v>3</v>
@@ -853,7 +853,7 @@
     </row>
     <row r="61" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B61" s="0" t="s">
         <v>3</v>
@@ -861,7 +861,7 @@
     </row>
     <row r="62" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B62" s="0" t="s">
         <v>3</v>
@@ -869,25 +869,9 @@
     </row>
     <row r="63" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="64" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="B64" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="65" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="B65" s="0" t="s">
         <v>3</v>
       </c>
     </row>

--- a/src/main/java/dataRepository/logindata.xlsx
+++ b/src/main/java/dataRepository/logindata.xlsx
@@ -381,7 +381,7 @@
     </row>
     <row r="2" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>3</v>
@@ -389,7 +389,7 @@
     </row>
     <row r="3" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>3</v>
@@ -397,7 +397,7 @@
     </row>
     <row r="4" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>3</v>
@@ -405,7 +405,7 @@
     </row>
     <row r="5" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>3</v>
@@ -413,7 +413,7 @@
     </row>
     <row r="6" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>3</v>
@@ -421,7 +421,7 @@
     </row>
     <row r="7" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>3</v>
@@ -429,7 +429,7 @@
     </row>
     <row r="8" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>3</v>
@@ -437,7 +437,7 @@
     </row>
     <row r="9" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>3</v>
@@ -445,7 +445,7 @@
     </row>
     <row r="10" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>3</v>
@@ -453,7 +453,7 @@
     </row>
     <row r="11" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B11" s="0" t="s">
         <v>3</v>
@@ -461,7 +461,7 @@
     </row>
     <row r="12" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B12" s="0" t="s">
         <v>3</v>
@@ -469,7 +469,7 @@
     </row>
     <row r="13" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B13" s="0" t="s">
         <v>3</v>
@@ -477,7 +477,7 @@
     </row>
     <row r="14" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B14" s="0" t="s">
         <v>3</v>
@@ -485,7 +485,7 @@
     </row>
     <row r="15" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="B15" s="0" t="s">
         <v>3</v>
@@ -493,7 +493,7 @@
     </row>
     <row r="16" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B16" s="0" t="s">
         <v>3</v>
@@ -501,7 +501,7 @@
     </row>
     <row r="17" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="B17" s="0" t="s">
         <v>3</v>
@@ -509,7 +509,7 @@
     </row>
     <row r="18" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B18" s="0" t="s">
         <v>3</v>
@@ -517,7 +517,7 @@
     </row>
     <row r="19" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="B19" s="0" t="s">
         <v>3</v>
@@ -525,7 +525,7 @@
     </row>
     <row r="20" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="B20" s="0" t="s">
         <v>3</v>
@@ -533,7 +533,7 @@
     </row>
     <row r="21" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B21" s="0" t="s">
         <v>3</v>
@@ -541,7 +541,7 @@
     </row>
     <row r="22" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="B22" s="0" t="s">
         <v>3</v>
@@ -549,7 +549,7 @@
     </row>
     <row r="23" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="B23" s="0" t="s">
         <v>3</v>
@@ -557,7 +557,7 @@
     </row>
     <row r="24" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B24" s="0" t="s">
         <v>3</v>
@@ -565,7 +565,7 @@
     </row>
     <row r="25" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="B25" s="0" t="s">
         <v>3</v>
@@ -573,7 +573,7 @@
     </row>
     <row r="26" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="B26" s="0" t="s">
         <v>3</v>
@@ -581,7 +581,7 @@
     </row>
     <row r="27" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="B27" s="0" t="s">
         <v>3</v>
@@ -589,7 +589,7 @@
     </row>
     <row r="28" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B28" s="0" t="s">
         <v>3</v>
@@ -597,7 +597,7 @@
     </row>
     <row r="29" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="B29" s="0" t="s">
         <v>3</v>
@@ -605,7 +605,7 @@
     </row>
     <row r="30" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="B30" s="0" t="s">
         <v>3</v>
@@ -613,7 +613,7 @@
     </row>
     <row r="31" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="B31" s="0" t="s">
         <v>3</v>
@@ -621,7 +621,7 @@
     </row>
     <row r="32" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B32" s="0" t="s">
         <v>3</v>
@@ -629,7 +629,7 @@
     </row>
     <row r="33" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="B33" s="0" t="s">
         <v>3</v>
@@ -637,7 +637,7 @@
     </row>
     <row r="34" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B34" s="0" t="s">
         <v>3</v>
@@ -645,7 +645,7 @@
     </row>
     <row r="35" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="B35" s="0" t="s">
         <v>3</v>
@@ -653,7 +653,7 @@
     </row>
     <row r="36" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="B36" s="0" t="s">
         <v>3</v>
@@ -661,7 +661,7 @@
     </row>
     <row r="37" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="B37" s="0" t="s">
         <v>3</v>
@@ -669,7 +669,7 @@
     </row>
     <row r="38" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="B38" s="0" t="s">
         <v>3</v>
@@ -677,7 +677,7 @@
     </row>
     <row r="39" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="B39" s="0" t="s">
         <v>3</v>
@@ -685,7 +685,7 @@
     </row>
     <row r="40" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="B40" s="0" t="s">
         <v>3</v>
@@ -693,7 +693,7 @@
     </row>
     <row r="41" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B41" s="0" t="s">
         <v>3</v>
@@ -701,7 +701,7 @@
     </row>
     <row r="42" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="B42" s="0" t="s">
         <v>3</v>
@@ -709,7 +709,7 @@
     </row>
     <row r="43" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="B43" s="0" t="s">
         <v>3</v>
@@ -717,7 +717,7 @@
     </row>
     <row r="44" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="B44" s="0" t="s">
         <v>3</v>
@@ -725,7 +725,7 @@
     </row>
     <row r="45" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="B45" s="0" t="s">
         <v>3</v>
@@ -733,7 +733,7 @@
     </row>
     <row r="46" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="B46" s="0" t="s">
         <v>3</v>
@@ -741,7 +741,7 @@
     </row>
     <row r="47" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="B47" s="0" t="s">
         <v>3</v>
@@ -749,7 +749,7 @@
     </row>
     <row r="48" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B48" s="0" t="s">
         <v>3</v>
@@ -757,7 +757,7 @@
     </row>
     <row r="49" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="B49" s="0" t="s">
         <v>3</v>
@@ -765,7 +765,7 @@
     </row>
     <row r="50" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="B50" s="0" t="s">
         <v>3</v>
@@ -773,7 +773,7 @@
     </row>
     <row r="51" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="B51" s="0" t="s">
         <v>3</v>
@@ -781,7 +781,7 @@
     </row>
     <row r="52" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="B52" s="0" t="s">
         <v>3</v>
@@ -789,7 +789,7 @@
     </row>
     <row r="53" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="B53" s="0" t="s">
         <v>3</v>
@@ -797,7 +797,7 @@
     </row>
     <row r="54" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="B54" s="0" t="s">
         <v>3</v>
@@ -805,7 +805,7 @@
     </row>
     <row r="55" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="B55" s="0" t="s">
         <v>3</v>
@@ -813,7 +813,7 @@
     </row>
     <row r="56" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="B56" s="0" t="s">
         <v>3</v>
@@ -821,57 +821,9 @@
     </row>
     <row r="57" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="B58" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="B59" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="B60" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="B61" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="B62" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="63" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="B63" s="0" t="s">
         <v>3</v>
       </c>
     </row>

--- a/src/main/java/dataRepository/logindata.xlsx
+++ b/src/main/java/dataRepository/logindata.xlsx
@@ -381,7 +381,7 @@
     </row>
     <row r="2" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>3</v>
@@ -389,7 +389,7 @@
     </row>
     <row r="3" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>3</v>
@@ -397,7 +397,7 @@
     </row>
     <row r="4" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>3</v>
@@ -405,7 +405,7 @@
     </row>
     <row r="5" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>3</v>
@@ -413,7 +413,7 @@
     </row>
     <row r="6" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>3</v>
@@ -421,7 +421,7 @@
     </row>
     <row r="7" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>3</v>
@@ -429,7 +429,7 @@
     </row>
     <row r="8" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>3</v>
@@ -437,7 +437,7 @@
     </row>
     <row r="9" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>3</v>
@@ -445,7 +445,7 @@
     </row>
     <row r="10" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>3</v>
@@ -453,7 +453,7 @@
     </row>
     <row r="11" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B11" s="0" t="s">
         <v>3</v>
@@ -461,7 +461,7 @@
     </row>
     <row r="12" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B12" s="0" t="s">
         <v>3</v>
@@ -469,7 +469,7 @@
     </row>
     <row r="13" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B13" s="0" t="s">
         <v>3</v>
@@ -477,7 +477,7 @@
     </row>
     <row r="14" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B14" s="0" t="s">
         <v>3</v>
@@ -485,7 +485,7 @@
     </row>
     <row r="15" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B15" s="0" t="s">
         <v>3</v>
@@ -493,7 +493,7 @@
     </row>
     <row r="16" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B16" s="0" t="s">
         <v>3</v>
@@ -501,7 +501,7 @@
     </row>
     <row r="17" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B17" s="0" t="s">
         <v>3</v>
@@ -509,7 +509,7 @@
     </row>
     <row r="18" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B18" s="0" t="s">
         <v>3</v>
@@ -517,7 +517,7 @@
     </row>
     <row r="19" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B19" s="0" t="s">
         <v>3</v>
@@ -525,7 +525,7 @@
     </row>
     <row r="20" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B20" s="0" t="s">
         <v>3</v>
@@ -533,7 +533,7 @@
     </row>
     <row r="21" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B21" s="0" t="s">
         <v>3</v>
@@ -541,7 +541,7 @@
     </row>
     <row r="22" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B22" s="0" t="s">
         <v>3</v>
@@ -549,7 +549,7 @@
     </row>
     <row r="23" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B23" s="0" t="s">
         <v>3</v>
@@ -557,7 +557,7 @@
     </row>
     <row r="24" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B24" s="0" t="s">
         <v>3</v>
@@ -565,7 +565,7 @@
     </row>
     <row r="25" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B25" s="0" t="s">
         <v>3</v>
@@ -573,7 +573,7 @@
     </row>
     <row r="26" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B26" s="0" t="s">
         <v>3</v>
@@ -581,7 +581,7 @@
     </row>
     <row r="27" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B27" s="0" t="s">
         <v>3</v>
@@ -589,7 +589,7 @@
     </row>
     <row r="28" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B28" s="0" t="s">
         <v>3</v>
@@ -597,7 +597,7 @@
     </row>
     <row r="29" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B29" s="0" t="s">
         <v>3</v>
@@ -605,7 +605,7 @@
     </row>
     <row r="30" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B30" s="0" t="s">
         <v>3</v>
@@ -613,7 +613,7 @@
     </row>
     <row r="31" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B31" s="0" t="s">
         <v>3</v>
@@ -621,7 +621,7 @@
     </row>
     <row r="32" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B32" s="0" t="s">
         <v>3</v>
@@ -629,7 +629,7 @@
     </row>
     <row r="33" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B33" s="0" t="s">
         <v>3</v>
@@ -637,7 +637,7 @@
     </row>
     <row r="34" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B34" s="0" t="s">
         <v>3</v>
@@ -645,7 +645,7 @@
     </row>
     <row r="35" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B35" s="0" t="s">
         <v>3</v>
@@ -653,7 +653,7 @@
     </row>
     <row r="36" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B36" s="0" t="s">
         <v>3</v>
@@ -661,7 +661,7 @@
     </row>
     <row r="37" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B37" s="0" t="s">
         <v>3</v>
@@ -669,7 +669,7 @@
     </row>
     <row r="38" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B38" s="0" t="s">
         <v>3</v>
@@ -677,7 +677,7 @@
     </row>
     <row r="39" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B39" s="0" t="s">
         <v>3</v>
@@ -685,7 +685,7 @@
     </row>
     <row r="40" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B40" s="0" t="s">
         <v>3</v>
@@ -693,7 +693,7 @@
     </row>
     <row r="41" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B41" s="0" t="s">
         <v>3</v>
@@ -701,7 +701,7 @@
     </row>
     <row r="42" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B42" s="0" t="s">
         <v>3</v>
@@ -709,7 +709,7 @@
     </row>
     <row r="43" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B43" s="0" t="s">
         <v>3</v>
@@ -717,7 +717,7 @@
     </row>
     <row r="44" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B44" s="0" t="s">
         <v>3</v>
@@ -725,7 +725,7 @@
     </row>
     <row r="45" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B45" s="0" t="s">
         <v>3</v>
@@ -733,7 +733,7 @@
     </row>
     <row r="46" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B46" s="0" t="s">
         <v>3</v>
@@ -741,7 +741,7 @@
     </row>
     <row r="47" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B47" s="0" t="s">
         <v>3</v>
@@ -749,7 +749,7 @@
     </row>
     <row r="48" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B48" s="0" t="s">
         <v>3</v>
@@ -757,7 +757,7 @@
     </row>
     <row r="49" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B49" s="0" t="s">
         <v>3</v>
@@ -765,7 +765,7 @@
     </row>
     <row r="50" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B50" s="0" t="s">
         <v>3</v>
@@ -773,7 +773,7 @@
     </row>
     <row r="51" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B51" s="0" t="s">
         <v>3</v>
@@ -781,7 +781,7 @@
     </row>
     <row r="52" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B52" s="0" t="s">
         <v>3</v>
@@ -789,7 +789,7 @@
     </row>
     <row r="53" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B53" s="0" t="s">
         <v>3</v>
@@ -797,7 +797,7 @@
     </row>
     <row r="54" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B54" s="0" t="s">
         <v>3</v>
@@ -805,25 +805,9 @@
     </row>
     <row r="55" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="B56" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="B57" s="0" t="s">
         <v>3</v>
       </c>
     </row>

--- a/src/main/java/dataRepository/logindata.xlsx
+++ b/src/main/java/dataRepository/logindata.xlsx
@@ -381,7 +381,7 @@
     </row>
     <row r="2" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>3</v>
@@ -389,7 +389,7 @@
     </row>
     <row r="3" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>3</v>
@@ -397,7 +397,7 @@
     </row>
     <row r="4" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>3</v>
@@ -405,7 +405,7 @@
     </row>
     <row r="5" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>3</v>
@@ -413,7 +413,7 @@
     </row>
     <row r="6" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>3</v>
@@ -421,7 +421,7 @@
     </row>
     <row r="7" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>3</v>
@@ -429,7 +429,7 @@
     </row>
     <row r="8" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>3</v>
@@ -437,7 +437,7 @@
     </row>
     <row r="9" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>3</v>
@@ -445,7 +445,7 @@
     </row>
     <row r="10" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>3</v>
@@ -453,7 +453,7 @@
     </row>
     <row r="11" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B11" s="0" t="s">
         <v>3</v>
@@ -461,7 +461,7 @@
     </row>
     <row r="12" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B12" s="0" t="s">
         <v>3</v>
@@ -469,7 +469,7 @@
     </row>
     <row r="13" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B13" s="0" t="s">
         <v>3</v>
@@ -477,7 +477,7 @@
     </row>
     <row r="14" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B14" s="0" t="s">
         <v>3</v>
@@ -485,7 +485,7 @@
     </row>
     <row r="15" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B15" s="0" t="s">
         <v>3</v>
@@ -493,7 +493,7 @@
     </row>
     <row r="16" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B16" s="0" t="s">
         <v>3</v>
@@ -501,7 +501,7 @@
     </row>
     <row r="17" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B17" s="0" t="s">
         <v>3</v>
@@ -509,7 +509,7 @@
     </row>
     <row r="18" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B18" s="0" t="s">
         <v>3</v>
@@ -517,7 +517,7 @@
     </row>
     <row r="19" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B19" s="0" t="s">
         <v>3</v>
@@ -525,7 +525,7 @@
     </row>
     <row r="20" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B20" s="0" t="s">
         <v>3</v>
@@ -533,7 +533,7 @@
     </row>
     <row r="21" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B21" s="0" t="s">
         <v>3</v>
@@ -541,7 +541,7 @@
     </row>
     <row r="22" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B22" s="0" t="s">
         <v>3</v>
@@ -549,7 +549,7 @@
     </row>
     <row r="23" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B23" s="0" t="s">
         <v>3</v>
@@ -557,7 +557,7 @@
     </row>
     <row r="24" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B24" s="0" t="s">
         <v>3</v>
@@ -565,7 +565,7 @@
     </row>
     <row r="25" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B25" s="0" t="s">
         <v>3</v>
@@ -573,7 +573,7 @@
     </row>
     <row r="26" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B26" s="0" t="s">
         <v>3</v>
@@ -581,7 +581,7 @@
     </row>
     <row r="27" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B27" s="0" t="s">
         <v>3</v>
@@ -589,7 +589,7 @@
     </row>
     <row r="28" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B28" s="0" t="s">
         <v>3</v>
@@ -597,7 +597,7 @@
     </row>
     <row r="29" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B29" s="0" t="s">
         <v>3</v>
@@ -605,7 +605,7 @@
     </row>
     <row r="30" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B30" s="0" t="s">
         <v>3</v>
@@ -613,7 +613,7 @@
     </row>
     <row r="31" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B31" s="0" t="s">
         <v>3</v>
@@ -621,7 +621,7 @@
     </row>
     <row r="32" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B32" s="0" t="s">
         <v>3</v>
@@ -629,7 +629,7 @@
     </row>
     <row r="33" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B33" s="0" t="s">
         <v>3</v>
@@ -637,7 +637,7 @@
     </row>
     <row r="34" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B34" s="0" t="s">
         <v>3</v>
@@ -645,7 +645,7 @@
     </row>
     <row r="35" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B35" s="0" t="s">
         <v>3</v>
@@ -653,7 +653,7 @@
     </row>
     <row r="36" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B36" s="0" t="s">
         <v>3</v>
@@ -661,7 +661,7 @@
     </row>
     <row r="37" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B37" s="0" t="s">
         <v>3</v>
@@ -669,7 +669,7 @@
     </row>
     <row r="38" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B38" s="0" t="s">
         <v>3</v>
@@ -677,7 +677,7 @@
     </row>
     <row r="39" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B39" s="0" t="s">
         <v>3</v>
@@ -685,7 +685,7 @@
     </row>
     <row r="40" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B40" s="0" t="s">
         <v>3</v>
@@ -693,7 +693,7 @@
     </row>
     <row r="41" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B41" s="0" t="s">
         <v>3</v>
@@ -701,7 +701,7 @@
     </row>
     <row r="42" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B42" s="0" t="s">
         <v>3</v>
@@ -709,7 +709,7 @@
     </row>
     <row r="43" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B43" s="0" t="s">
         <v>3</v>
@@ -717,7 +717,7 @@
     </row>
     <row r="44" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B44" s="0" t="s">
         <v>3</v>
@@ -725,7 +725,7 @@
     </row>
     <row r="45" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B45" s="0" t="s">
         <v>3</v>
@@ -733,7 +733,7 @@
     </row>
     <row r="46" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B46" s="0" t="s">
         <v>3</v>
@@ -741,7 +741,7 @@
     </row>
     <row r="47" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B47" s="0" t="s">
         <v>3</v>
@@ -749,7 +749,7 @@
     </row>
     <row r="48" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B48" s="0" t="s">
         <v>3</v>
@@ -757,7 +757,7 @@
     </row>
     <row r="49" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B49" s="0" t="s">
         <v>3</v>
@@ -765,7 +765,7 @@
     </row>
     <row r="50" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B50" s="0" t="s">
         <v>3</v>
@@ -773,7 +773,7 @@
     </row>
     <row r="51" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B51" s="0" t="s">
         <v>3</v>
@@ -781,7 +781,7 @@
     </row>
     <row r="52" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B52" s="0" t="s">
         <v>3</v>
@@ -789,7 +789,7 @@
     </row>
     <row r="53" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B53" s="0" t="s">
         <v>3</v>
@@ -797,7 +797,7 @@
     </row>
     <row r="54" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B54" s="0" t="s">
         <v>3</v>
@@ -805,7 +805,7 @@
     </row>
     <row r="55" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B55" s="0" t="s">
         <v>3</v>
@@ -813,7 +813,7 @@
     </row>
     <row r="56" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B56" s="0" t="s">
         <v>3</v>
@@ -821,7 +821,7 @@
     </row>
     <row r="57" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B57" s="0" t="s">
         <v>3</v>
@@ -829,7 +829,7 @@
     </row>
     <row r="58" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B58" s="0" t="s">
         <v>3</v>
@@ -837,7 +837,7 @@
     </row>
     <row r="59" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B59" s="0" t="s">
         <v>3</v>
@@ -845,7 +845,7 @@
     </row>
     <row r="60" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B60" s="0" t="s">
         <v>3</v>
@@ -853,7 +853,7 @@
     </row>
     <row r="61" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B61" s="0" t="s">
         <v>3</v>
@@ -861,17 +861,9 @@
     </row>
     <row r="62" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="63" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="B63" s="0" t="s">
         <v>3</v>
       </c>
     </row>

--- a/src/main/java/dataRepository/logindata.xlsx
+++ b/src/main/java/dataRepository/logindata.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="62">
   <si>
     <t xml:space="preserve">UserName</t>
   </si>
@@ -28,52 +28,10 @@
     <t xml:space="preserve">Password</t>
   </si>
   <si>
-    <t xml:space="preserve">Newuserstaging_8@mailinator.com</t>
+    <t xml:space="preserve">Newuserstaging_22@mailinator.com</t>
   </si>
   <si>
     <t xml:space="preserve">password</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Newuserstaging_9@mailinator.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Newuserstaging_10@mailinator.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Newuserstaging_11@mailinator.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Newuserstaging_12@mailinator.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Newuserstaging_13@mailinator.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Newuserstaging_14@mailinator.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Newuserstaging_15@mailinator.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Newuserstaging_16@mailinator.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Newuserstaging_17@mailinator.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Newuserstaging_18@mailinator.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Newuserstaging_19@mailinator.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Newuserstaging_20@mailinator.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Newuserstaging_21@mailinator.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Newuserstaging_22@mailinator.com</t>
   </si>
   <si>
     <t xml:space="preserve">Newuserstaging_23@mailinator.com</t>
@@ -355,7 +313,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B74"/>
+  <dimension ref="A1:B60"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
@@ -363,12 +321,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col min="1" max="1" hidden="false" style="0" width="35.3673469387755" collapsed="true"/>
-    <col min="2" max="2" hidden="false" style="0" width="9.17857142857143" collapsed="true"/>
-    <col min="3" max="7" hidden="false" style="0" width="8.23469387755102" collapsed="true"/>
-    <col min="8" max="8" hidden="false" style="0" width="25.6479591836735" collapsed="true"/>
-    <col min="9" max="9" hidden="false" style="0" width="19.0357142857143" collapsed="true"/>
-    <col min="10" max="1025" hidden="false" style="0" width="8.23469387755102" collapsed="true"/>
+    <col min="1" max="1" hidden="false" style="0" width="34.9642857142857" collapsed="true"/>
+    <col min="2" max="2" hidden="false" style="0" width="9.04591836734694" collapsed="true"/>
+    <col min="8" max="8" hidden="false" style="0" width="25.3775510204082" collapsed="true"/>
+    <col min="9" max="9" hidden="false" style="0" width="18.765306122449" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -381,7 +337,7 @@
     </row>
     <row r="2" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>3</v>
@@ -389,7 +345,7 @@
     </row>
     <row r="3" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>3</v>
@@ -397,7 +353,7 @@
     </row>
     <row r="4" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>3</v>
@@ -405,7 +361,7 @@
     </row>
     <row r="5" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>3</v>
@@ -413,7 +369,7 @@
     </row>
     <row r="6" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>3</v>
@@ -421,7 +377,7 @@
     </row>
     <row r="7" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>3</v>
@@ -429,7 +385,7 @@
     </row>
     <row r="8" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>3</v>
@@ -437,7 +393,7 @@
     </row>
     <row r="9" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>3</v>
@@ -445,7 +401,7 @@
     </row>
     <row r="10" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>3</v>
@@ -453,7 +409,7 @@
     </row>
     <row r="11" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="B11" s="0" t="s">
         <v>3</v>
@@ -461,7 +417,7 @@
     </row>
     <row r="12" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="B12" s="0" t="s">
         <v>3</v>
@@ -469,7 +425,7 @@
     </row>
     <row r="13" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="B13" s="0" t="s">
         <v>3</v>
@@ -477,7 +433,7 @@
     </row>
     <row r="14" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="B14" s="0" t="s">
         <v>3</v>
@@ -485,7 +441,7 @@
     </row>
     <row r="15" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="B15" s="0" t="s">
         <v>3</v>
@@ -493,7 +449,7 @@
     </row>
     <row r="16" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="B16" s="0" t="s">
         <v>3</v>
@@ -501,7 +457,7 @@
     </row>
     <row r="17" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="B17" s="0" t="s">
         <v>3</v>
@@ -509,7 +465,7 @@
     </row>
     <row r="18" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="B18" s="0" t="s">
         <v>3</v>
@@ -517,7 +473,7 @@
     </row>
     <row r="19" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="B19" s="0" t="s">
         <v>3</v>
@@ -525,7 +481,7 @@
     </row>
     <row r="20" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="B20" s="0" t="s">
         <v>3</v>
@@ -533,7 +489,7 @@
     </row>
     <row r="21" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="B21" s="0" t="s">
         <v>3</v>
@@ -541,7 +497,7 @@
     </row>
     <row r="22" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="B22" s="0" t="s">
         <v>3</v>
@@ -549,7 +505,7 @@
     </row>
     <row r="23" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="B23" s="0" t="s">
         <v>3</v>
@@ -557,7 +513,7 @@
     </row>
     <row r="24" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="B24" s="0" t="s">
         <v>3</v>
@@ -565,7 +521,7 @@
     </row>
     <row r="25" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="B25" s="0" t="s">
         <v>3</v>
@@ -573,7 +529,7 @@
     </row>
     <row r="26" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="B26" s="0" t="s">
         <v>3</v>
@@ -581,7 +537,7 @@
     </row>
     <row r="27" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="B27" s="0" t="s">
         <v>3</v>
@@ -589,7 +545,7 @@
     </row>
     <row r="28" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="B28" s="0" t="s">
         <v>3</v>
@@ -597,7 +553,7 @@
     </row>
     <row r="29" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="B29" s="0" t="s">
         <v>3</v>
@@ -605,7 +561,7 @@
     </row>
     <row r="30" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="B30" s="0" t="s">
         <v>3</v>
@@ -613,7 +569,7 @@
     </row>
     <row r="31" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="B31" s="0" t="s">
         <v>3</v>
@@ -621,7 +577,7 @@
     </row>
     <row r="32" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="B32" s="0" t="s">
         <v>3</v>
@@ -629,7 +585,7 @@
     </row>
     <row r="33" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="B33" s="0" t="s">
         <v>3</v>
@@ -637,7 +593,7 @@
     </row>
     <row r="34" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="B34" s="0" t="s">
         <v>3</v>
@@ -645,7 +601,7 @@
     </row>
     <row r="35" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="B35" s="0" t="s">
         <v>3</v>
@@ -653,7 +609,7 @@
     </row>
     <row r="36" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="B36" s="0" t="s">
         <v>3</v>
@@ -661,7 +617,7 @@
     </row>
     <row r="37" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="B37" s="0" t="s">
         <v>3</v>
@@ -669,7 +625,7 @@
     </row>
     <row r="38" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="B38" s="0" t="s">
         <v>3</v>
@@ -677,7 +633,7 @@
     </row>
     <row r="39" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="B39" s="0" t="s">
         <v>3</v>
@@ -685,7 +641,7 @@
     </row>
     <row r="40" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="B40" s="0" t="s">
         <v>3</v>
@@ -693,7 +649,7 @@
     </row>
     <row r="41" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="B41" s="0" t="s">
         <v>3</v>
@@ -701,7 +657,7 @@
     </row>
     <row r="42" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="B42" s="0" t="s">
         <v>3</v>
@@ -709,7 +665,7 @@
     </row>
     <row r="43" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="B43" s="0" t="s">
         <v>3</v>
@@ -717,7 +673,7 @@
     </row>
     <row r="44" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="B44" s="0" t="s">
         <v>3</v>
@@ -725,7 +681,7 @@
     </row>
     <row r="45" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="B45" s="0" t="s">
         <v>3</v>
@@ -733,7 +689,7 @@
     </row>
     <row r="46" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="B46" s="0" t="s">
         <v>3</v>
@@ -741,7 +697,7 @@
     </row>
     <row r="47" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="B47" s="0" t="s">
         <v>3</v>
@@ -749,7 +705,7 @@
     </row>
     <row r="48" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="B48" s="0" t="s">
         <v>3</v>
@@ -757,7 +713,7 @@
     </row>
     <row r="49" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="B49" s="0" t="s">
         <v>3</v>
@@ -765,7 +721,7 @@
     </row>
     <row r="50" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="B50" s="0" t="s">
         <v>3</v>
@@ -773,7 +729,7 @@
     </row>
     <row r="51" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="B51" s="0" t="s">
         <v>3</v>
@@ -781,7 +737,7 @@
     </row>
     <row r="52" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="B52" s="0" t="s">
         <v>3</v>
@@ -789,7 +745,7 @@
     </row>
     <row r="53" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B53" s="0" t="s">
         <v>3</v>
@@ -797,7 +753,7 @@
     </row>
     <row r="54" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="B54" s="0" t="s">
         <v>3</v>
@@ -805,7 +761,7 @@
     </row>
     <row r="55" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="B55" s="0" t="s">
         <v>3</v>
@@ -813,7 +769,7 @@
     </row>
     <row r="56" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="B56" s="0" t="s">
         <v>3</v>
@@ -821,7 +777,7 @@
     </row>
     <row r="57" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="B57" s="0" t="s">
         <v>3</v>
@@ -829,7 +785,7 @@
     </row>
     <row r="58" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="B58" s="0" t="s">
         <v>3</v>
@@ -837,33 +793,9 @@
     </row>
     <row r="59" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="B60" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="B61" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="B62" s="0" t="s">
         <v>3</v>
       </c>
     </row>

--- a/src/main/java/dataRepository/logindata.xlsx
+++ b/src/main/java/dataRepository/logindata.xlsx
@@ -381,7 +381,7 @@
     </row>
     <row r="2" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>3</v>
@@ -389,7 +389,7 @@
     </row>
     <row r="3" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>3</v>
@@ -397,7 +397,7 @@
     </row>
     <row r="4" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>3</v>
@@ -405,7 +405,7 @@
     </row>
     <row r="5" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>3</v>
@@ -413,7 +413,7 @@
     </row>
     <row r="6" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>3</v>
@@ -421,7 +421,7 @@
     </row>
     <row r="7" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>3</v>
@@ -429,7 +429,7 @@
     </row>
     <row r="8" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>3</v>
@@ -437,7 +437,7 @@
     </row>
     <row r="9" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>3</v>
@@ -445,7 +445,7 @@
     </row>
     <row r="10" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>3</v>
@@ -453,7 +453,7 @@
     </row>
     <row r="11" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B11" s="0" t="s">
         <v>3</v>
@@ -461,7 +461,7 @@
     </row>
     <row r="12" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B12" s="0" t="s">
         <v>3</v>
@@ -469,7 +469,7 @@
     </row>
     <row r="13" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B13" s="0" t="s">
         <v>3</v>
@@ -477,7 +477,7 @@
     </row>
     <row r="14" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B14" s="0" t="s">
         <v>3</v>
@@ -485,7 +485,7 @@
     </row>
     <row r="15" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B15" s="0" t="s">
         <v>3</v>
@@ -493,7 +493,7 @@
     </row>
     <row r="16" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B16" s="0" t="s">
         <v>3</v>
@@ -501,7 +501,7 @@
     </row>
     <row r="17" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B17" s="0" t="s">
         <v>3</v>
@@ -509,7 +509,7 @@
     </row>
     <row r="18" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B18" s="0" t="s">
         <v>3</v>
@@ -517,7 +517,7 @@
     </row>
     <row r="19" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B19" s="0" t="s">
         <v>3</v>
@@ -525,7 +525,7 @@
     </row>
     <row r="20" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B20" s="0" t="s">
         <v>3</v>
@@ -533,7 +533,7 @@
     </row>
     <row r="21" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B21" s="0" t="s">
         <v>3</v>
@@ -541,7 +541,7 @@
     </row>
     <row r="22" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B22" s="0" t="s">
         <v>3</v>
@@ -549,7 +549,7 @@
     </row>
     <row r="23" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B23" s="0" t="s">
         <v>3</v>
@@ -557,7 +557,7 @@
     </row>
     <row r="24" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B24" s="0" t="s">
         <v>3</v>
@@ -565,7 +565,7 @@
     </row>
     <row r="25" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B25" s="0" t="s">
         <v>3</v>
@@ -573,7 +573,7 @@
     </row>
     <row r="26" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B26" s="0" t="s">
         <v>3</v>
@@ -581,7 +581,7 @@
     </row>
     <row r="27" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B27" s="0" t="s">
         <v>3</v>
@@ -589,7 +589,7 @@
     </row>
     <row r="28" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B28" s="0" t="s">
         <v>3</v>
@@ -597,7 +597,7 @@
     </row>
     <row r="29" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B29" s="0" t="s">
         <v>3</v>
@@ -605,7 +605,7 @@
     </row>
     <row r="30" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B30" s="0" t="s">
         <v>3</v>
@@ -613,7 +613,7 @@
     </row>
     <row r="31" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B31" s="0" t="s">
         <v>3</v>
@@ -621,7 +621,7 @@
     </row>
     <row r="32" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B32" s="0" t="s">
         <v>3</v>
@@ -629,7 +629,7 @@
     </row>
     <row r="33" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B33" s="0" t="s">
         <v>3</v>
@@ -637,7 +637,7 @@
     </row>
     <row r="34" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B34" s="0" t="s">
         <v>3</v>
@@ -645,7 +645,7 @@
     </row>
     <row r="35" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B35" s="0" t="s">
         <v>3</v>
@@ -653,7 +653,7 @@
     </row>
     <row r="36" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B36" s="0" t="s">
         <v>3</v>
@@ -661,7 +661,7 @@
     </row>
     <row r="37" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B37" s="0" t="s">
         <v>3</v>
@@ -669,7 +669,7 @@
     </row>
     <row r="38" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B38" s="0" t="s">
         <v>3</v>
@@ -677,7 +677,7 @@
     </row>
     <row r="39" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B39" s="0" t="s">
         <v>3</v>
@@ -685,7 +685,7 @@
     </row>
     <row r="40" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B40" s="0" t="s">
         <v>3</v>
@@ -693,7 +693,7 @@
     </row>
     <row r="41" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B41" s="0" t="s">
         <v>3</v>
@@ -701,7 +701,7 @@
     </row>
     <row r="42" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B42" s="0" t="s">
         <v>3</v>
@@ -709,7 +709,7 @@
     </row>
     <row r="43" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B43" s="0" t="s">
         <v>3</v>
@@ -717,7 +717,7 @@
     </row>
     <row r="44" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B44" s="0" t="s">
         <v>3</v>
@@ -725,7 +725,7 @@
     </row>
     <row r="45" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B45" s="0" t="s">
         <v>3</v>
@@ -733,7 +733,7 @@
     </row>
     <row r="46" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B46" s="0" t="s">
         <v>3</v>
@@ -741,7 +741,7 @@
     </row>
     <row r="47" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B47" s="0" t="s">
         <v>3</v>
@@ -749,7 +749,7 @@
     </row>
     <row r="48" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B48" s="0" t="s">
         <v>3</v>
@@ -757,7 +757,7 @@
     </row>
     <row r="49" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B49" s="0" t="s">
         <v>3</v>
@@ -765,7 +765,7 @@
     </row>
     <row r="50" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B50" s="0" t="s">
         <v>3</v>
@@ -773,7 +773,7 @@
     </row>
     <row r="51" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B51" s="0" t="s">
         <v>3</v>
@@ -781,7 +781,7 @@
     </row>
     <row r="52" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B52" s="0" t="s">
         <v>3</v>
@@ -789,7 +789,7 @@
     </row>
     <row r="53" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B53" s="0" t="s">
         <v>3</v>
@@ -797,7 +797,7 @@
     </row>
     <row r="54" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B54" s="0" t="s">
         <v>3</v>
@@ -805,7 +805,7 @@
     </row>
     <row r="55" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B55" s="0" t="s">
         <v>3</v>
@@ -813,7 +813,7 @@
     </row>
     <row r="56" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B56" s="0" t="s">
         <v>3</v>
@@ -821,7 +821,7 @@
     </row>
     <row r="57" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B57" s="0" t="s">
         <v>3</v>
@@ -829,41 +829,9 @@
     </row>
     <row r="58" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="B59" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="B60" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="B61" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="B62" s="0" t="s">
         <v>3</v>
       </c>
     </row>

--- a/src/main/java/dataRepository/logindata.xlsx
+++ b/src/main/java/dataRepository/logindata.xlsx
@@ -252,12 +252,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="29.4285714285714"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="9.71938775510204"/>
-    <col collapsed="false" hidden="false" max="7" min="3" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="27.2704081632653"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="20.1122448979592"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.23469387755102"/>
+    <col min="1" max="1" hidden="false" style="0" width="29.4285714285714" collapsed="true"/>
+    <col min="2" max="2" hidden="false" style="0" width="9.71938775510204" collapsed="true"/>
+    <col min="3" max="7" hidden="false" style="0" width="8.23469387755102" collapsed="true"/>
+    <col min="8" max="8" hidden="false" style="0" width="27.2704081632653" collapsed="true"/>
+    <col min="9" max="9" hidden="false" style="0" width="20.1122448979592" collapsed="true"/>
+    <col min="10" max="1025" hidden="false" style="0" width="8.23469387755102" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -268,291 +268,283 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B11" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B12" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B13" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B14" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B15" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B16" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B17" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B18" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B19" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B20" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B21" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B22" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B23" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B24" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B25" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B26" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B27" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B28" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B29" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B30" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B31" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B32" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B33" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B34" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B35" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="B37" s="0" t="s">
         <v>3</v>
       </c>
     </row>

--- a/src/main/java/dataRepository/logindata.xlsx
+++ b/src/main/java/dataRepository/logindata.xlsx
@@ -337,7 +337,7 @@
     </row>
     <row r="2" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>3</v>
@@ -345,7 +345,7 @@
     </row>
     <row r="3" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>3</v>
@@ -353,7 +353,7 @@
     </row>
     <row r="4" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>3</v>
@@ -361,7 +361,7 @@
     </row>
     <row r="5" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>3</v>
@@ -369,7 +369,7 @@
     </row>
     <row r="6" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>3</v>
@@ -377,7 +377,7 @@
     </row>
     <row r="7" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>3</v>
@@ -385,7 +385,7 @@
     </row>
     <row r="8" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>3</v>
@@ -393,7 +393,7 @@
     </row>
     <row r="9" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>3</v>
@@ -401,7 +401,7 @@
     </row>
     <row r="10" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>3</v>
@@ -409,7 +409,7 @@
     </row>
     <row r="11" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B11" s="0" t="s">
         <v>3</v>
@@ -417,7 +417,7 @@
     </row>
     <row r="12" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B12" s="0" t="s">
         <v>3</v>
@@ -425,7 +425,7 @@
     </row>
     <row r="13" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B13" s="0" t="s">
         <v>3</v>
@@ -433,7 +433,7 @@
     </row>
     <row r="14" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B14" s="0" t="s">
         <v>3</v>
@@ -441,7 +441,7 @@
     </row>
     <row r="15" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B15" s="0" t="s">
         <v>3</v>
@@ -449,7 +449,7 @@
     </row>
     <row r="16" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B16" s="0" t="s">
         <v>3</v>
@@ -457,7 +457,7 @@
     </row>
     <row r="17" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B17" s="0" t="s">
         <v>3</v>
@@ -465,7 +465,7 @@
     </row>
     <row r="18" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B18" s="0" t="s">
         <v>3</v>
@@ -473,7 +473,7 @@
     </row>
     <row r="19" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B19" s="0" t="s">
         <v>3</v>
@@ -481,7 +481,7 @@
     </row>
     <row r="20" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B20" s="0" t="s">
         <v>3</v>
@@ -489,7 +489,7 @@
     </row>
     <row r="21" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B21" s="0" t="s">
         <v>3</v>
@@ -497,7 +497,7 @@
     </row>
     <row r="22" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B22" s="0" t="s">
         <v>3</v>
@@ -505,7 +505,7 @@
     </row>
     <row r="23" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B23" s="0" t="s">
         <v>3</v>
@@ -513,7 +513,7 @@
     </row>
     <row r="24" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B24" s="0" t="s">
         <v>3</v>
@@ -521,7 +521,7 @@
     </row>
     <row r="25" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B25" s="0" t="s">
         <v>3</v>
@@ -529,7 +529,7 @@
     </row>
     <row r="26" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B26" s="0" t="s">
         <v>3</v>
@@ -537,7 +537,7 @@
     </row>
     <row r="27" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B27" s="0" t="s">
         <v>3</v>
@@ -545,7 +545,7 @@
     </row>
     <row r="28" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B28" s="0" t="s">
         <v>3</v>
@@ -553,7 +553,7 @@
     </row>
     <row r="29" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B29" s="0" t="s">
         <v>3</v>
@@ -561,7 +561,7 @@
     </row>
     <row r="30" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B30" s="0" t="s">
         <v>3</v>
@@ -569,7 +569,7 @@
     </row>
     <row r="31" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B31" s="0" t="s">
         <v>3</v>
@@ -577,7 +577,7 @@
     </row>
     <row r="32" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B32" s="0" t="s">
         <v>3</v>
@@ -585,7 +585,7 @@
     </row>
     <row r="33" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B33" s="0" t="s">
         <v>3</v>
@@ -593,7 +593,7 @@
     </row>
     <row r="34" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B34" s="0" t="s">
         <v>3</v>
@@ -601,7 +601,7 @@
     </row>
     <row r="35" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B35" s="0" t="s">
         <v>3</v>
@@ -609,7 +609,7 @@
     </row>
     <row r="36" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B36" s="0" t="s">
         <v>3</v>
@@ -617,7 +617,7 @@
     </row>
     <row r="37" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B37" s="0" t="s">
         <v>3</v>
@@ -625,7 +625,7 @@
     </row>
     <row r="38" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B38" s="0" t="s">
         <v>3</v>
@@ -633,7 +633,7 @@
     </row>
     <row r="39" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B39" s="0" t="s">
         <v>3</v>
@@ -641,7 +641,7 @@
     </row>
     <row r="40" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B40" s="0" t="s">
         <v>3</v>
@@ -649,7 +649,7 @@
     </row>
     <row r="41" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B41" s="0" t="s">
         <v>3</v>
@@ -657,7 +657,7 @@
     </row>
     <row r="42" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B42" s="0" t="s">
         <v>3</v>
@@ -665,7 +665,7 @@
     </row>
     <row r="43" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B43" s="0" t="s">
         <v>3</v>
@@ -673,7 +673,7 @@
     </row>
     <row r="44" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B44" s="0" t="s">
         <v>3</v>
@@ -681,7 +681,7 @@
     </row>
     <row r="45" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B45" s="0" t="s">
         <v>3</v>
@@ -689,7 +689,7 @@
     </row>
     <row r="46" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B46" s="0" t="s">
         <v>3</v>
@@ -697,7 +697,7 @@
     </row>
     <row r="47" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B47" s="0" t="s">
         <v>3</v>
@@ -705,7 +705,7 @@
     </row>
     <row r="48" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B48" s="0" t="s">
         <v>3</v>
@@ -713,7 +713,7 @@
     </row>
     <row r="49" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B49" s="0" t="s">
         <v>3</v>
@@ -721,7 +721,7 @@
     </row>
     <row r="50" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B50" s="0" t="s">
         <v>3</v>
@@ -729,7 +729,7 @@
     </row>
     <row r="51" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B51" s="0" t="s">
         <v>3</v>
@@ -737,7 +737,7 @@
     </row>
     <row r="52" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B52" s="0" t="s">
         <v>3</v>
@@ -745,7 +745,7 @@
     </row>
     <row r="53" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B53" s="0" t="s">
         <v>3</v>
@@ -753,7 +753,7 @@
     </row>
     <row r="54" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B54" s="0" t="s">
         <v>3</v>
@@ -761,41 +761,9 @@
     </row>
     <row r="55" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="B56" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="B57" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="B58" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" hidden="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="B59" s="0" t="s">
         <v>3</v>
       </c>
     </row>
